--- a/0_data/9_evaluation/comparison_model_evaluation.xlsx
+++ b/0_data/9_evaluation/comparison_model_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>d</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>d_prompts</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>15.18</v>
       </c>
+      <c r="H2" t="n">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>11.72</v>
       </c>
+      <c r="H3" t="n">
+        <v>11.93</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>3.38</v>
       </c>
+      <c r="H4" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>19.82</v>
       </c>
+      <c r="H5" t="n">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>5.95</v>
       </c>
+      <c r="H6" t="n">
+        <v>5.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>0.02</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -638,6 +661,9 @@
       </c>
       <c r="G8" t="n">
         <v>2.23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -720,6 +746,13 @@
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[ 959  569 1357  483  177  200    4  175   27   20   16    0   18    0
+    3    1    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -757,6 +790,11 @@
           <t>[5548   19 4520   24 5151  945   31 4855   20 5020   97 2094]</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[831   1 576   0 696 313   1 620  19 576   1 390]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -794,6 +832,11 @@
           <t>{'C': 5548, 'C#': 19, 'D': 4520, 'D#': 24, 'E': 5151, 'F': 945, 'F#': 31, 'G': 4855, 'G#': 20, 'A': 5020, 'A#': 97, 'B': 2094}</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{'C': 831, 'C#': 1, 'D': 576, 'D#': 0, 'E': 696, 'F': 313, 'F#': 1, 'G': 620, 'G#': 19, 'A': 576, 'A#': 1, 'B': 390}</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -818,6 +861,9 @@
       </c>
       <c r="G12" t="n">
         <v>1.91</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="13">
@@ -922,6 +968,22 @@
  [ 692    0   84    0   64    8    0  194    2  639    2  397]]</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[[211   0 203   0  59  19   0  48   1 104   0 183]
+ [  0   0   0   0   0   0   0   0   1   0   0   0]
+ [200   1 106   0 180  10   0  36   0  18   0  23]
+ [  0   0   0   0   0   0   0   0   0   0   0   0]
+ [ 71   0 200   0 144  81   0 110   2  71   0  13]
+ [ 12   0   7   0 109 116   0  58   1   7   0   2]
+ [  0   0   0   0   1   0   0   0   0   0   0   0]
+ [ 50   0  32   0 146  77   0 179   1 109   0  24]
+ [  2   0   0   0   0   0   0   1  11   3   1   1]
+ [ 91   0  18   0  51   8   1 153   2 158   0  92]
+ [  1   0   0   0   0   0   0   0   0   0   0   0]
+ [188   0  10   0   6   2   0  30   0 101   0  52]]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -947,6 +1009,9 @@
       <c r="G14" t="n">
         <v>283.24</v>
       </c>
+      <c r="H14" t="n">
+        <v>268.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -972,6 +1037,9 @@
       <c r="G15" t="n">
         <v>6.17</v>
       </c>
+      <c r="H15" t="n">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -996,6 +1064,9 @@
       </c>
       <c r="G16" t="n">
         <v>2.87</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="17">
@@ -1046,6 +1117,13 @@
     14     0     2     3    14     5     1     0]</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[  79 1278 1302  621  380   68   56   32   85   16   14   10   20    8
+    9    6   22    7    3    0    2    0    1    0    0    0    0    0
+    1    0    0    0]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1070,6 +1148,9 @@
       </c>
       <c r="G18" t="n">
         <v>6.07</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="19">
@@ -1138,6 +1219,15 @@
      0     0     0     0]</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[   1 1186    0  918    0  243    0 1283    0   56    0   33   12   16
+    0  167    0    5   13    7    4    7    0   17    0    4    3    6
+    1    3    0   37    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1173,6 +1263,11 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 17, 2: 10088, 3: 0, 4: 7136, 5: 0, 6: 1491, 7: 0, 8: 5857, 9: 0, 10: 646, 11: 0, 12: 445, 13: 160, 14: 194, 15: 0, 16: 1224, 17: 0, 18: 122, 19: 44, 20: 102, 21: 47, 22: 57, 23: 0, 24: 102, 25: 0, 26: 36, 27: 27, 28: 33, 29: 10, 30: 24, 31: 0, 32: 422}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 1, 2: 1186, 3: 0, 4: 918, 5: 0, 6: 243, 7: 0, 8: 1283, 9: 0, 10: 56, 11: 0, 12: 33, 13: 12, 14: 16, 15: 0, 16: 167, 17: 0, 18: 5, 19: 13, 20: 7, 21: 4, 22: 7, 23: 0, 24: 17, 25: 0, 26: 4, 27: 3, 28: 6, 29: 1, 30: 3, 31: 0, 32: 37}</t>
         </is>
       </c>
     </row>
@@ -1248,6 +1343,17 @@
  [   0   92    0 ...    3    0   31]]</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[[  0   1   0 ...   0   0   0]
+ [  0 441   0 ...   2   0   4]
+ [  0   0   0 ...   0   0   0]
+ ...
+ [  0   1   0 ...   0   0   0]
+ [  0   0   0 ...   0   0   0]
+ [  0   9   0 ...   0   0   1]]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/0_data/9_evaluation/comparison_model_evaluation.xlsx
+++ b/0_data/9_evaluation/comparison_model_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>a1_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>a2_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>a3_50</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>b_50</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c_50</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>d_50</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>a1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>a3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>d_prompts</t>
         </is>
@@ -477,25 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.11</v>
+        <v>74.34</v>
       </c>
       <c r="C2" t="n">
-        <v>70.84</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>71.98</v>
+        <v>75.28</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>15.63</v>
+        <v>14.97</v>
       </c>
       <c r="G2" t="n">
-        <v>15.18</v>
+        <v>15.03</v>
       </c>
       <c r="H2" t="n">
-        <v>15.1</v>
+        <v>76.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75.66</v>
+      </c>
+      <c r="J2" t="n">
+        <v>75.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.82</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.9</v>
+        <v>12.03</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7</v>
+        <v>11.87</v>
       </c>
       <c r="D3" t="n">
-        <v>14.14</v>
+        <v>11.87</v>
       </c>
       <c r="E3" t="n">
-        <v>12.79</v>
+        <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>13.24</v>
+        <v>11.99</v>
       </c>
       <c r="G3" t="n">
-        <v>11.72</v>
+        <v>12.13</v>
       </c>
       <c r="H3" t="n">
-        <v>11.93</v>
+        <v>13.87</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13.07</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +599,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.41</v>
       </c>
-      <c r="C4" t="n">
+      <c r="K4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.44</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.55</v>
+      <c r="M4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +645,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.73</v>
+        <v>19.64</v>
       </c>
       <c r="C5" t="n">
-        <v>23.21</v>
+        <v>20.1</v>
       </c>
       <c r="D5" t="n">
-        <v>22.44</v>
+        <v>19.98</v>
       </c>
       <c r="E5" t="n">
-        <v>22.6</v>
+        <v>20.45</v>
       </c>
       <c r="F5" t="n">
-        <v>20.53</v>
+        <v>19.54</v>
       </c>
       <c r="G5" t="n">
-        <v>19.82</v>
+        <v>19.9</v>
       </c>
       <c r="H5" t="n">
-        <v>18.8</v>
+        <v>21.67</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="N5" t="n">
+        <v>20.33</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +691,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.91</v>
+        <v>5.75</v>
       </c>
       <c r="C6" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="D6" t="n">
-        <v>5.72</v>
+        <v>5.53</v>
       </c>
       <c r="E6" t="n">
-        <v>5.96</v>
+        <v>5.75</v>
       </c>
       <c r="F6" t="n">
-        <v>5.7</v>
+        <v>5.73</v>
       </c>
       <c r="G6" t="n">
-        <v>5.95</v>
+        <v>5.89</v>
       </c>
       <c r="H6" t="n">
-        <v>5.83</v>
+        <v>5.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.57</v>
       </c>
     </row>
     <row r="7">
@@ -623,10 +743,10 @@
         <v>0.02</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
@@ -635,7 +755,25 @@
         <v>0.02</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +786,40 @@
         <v>2.33</v>
       </c>
       <c r="C8" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="D8" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="E8" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="F8" t="n">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +830,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[ 8105  2125 11374  4667  1342  2126    47  1288   232   366   219    16
-   181     6    43     9     3     2     0     2     0     0     1     0
-     1     0     0     2     0     0     0     0     0     0     1     0
-     0     0     1     0     0     0     0     0     0     0     0     0
+          <t>[ 7714  2866 11185  4494  1259  2079    35  1298   275   365   189    17
+   220     2    26     9     5     6     0     1     1     0     0     0
+     0     0     0     1     0     1     2     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -689,10 +845,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 7130  2064 10373  3812  1012  1672    41  1124   175   201   149    11
-   142     4    34     7     2     7     1     3     2     1     0     0
-     0     0     0     1     0     1     0     1     3     0     0     0
-     1     1     0     0     0     0     0     0     0     0     0     0
+          <t>[ 6795  1928 10427  4594   955  1832    21  1078   245   294   114     9
+   141     1    22     6     3     1     0     2     0     2     2     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -704,10 +860,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[ 7848  2727 11430  4532  1209  2039    81  1157   273   305   175    19
-   157    10    29    15     0    13     0     2     1     2     3     0
-     0     0     1     0     0     0     0     1     1     0     0     0
-     1     0     1     0     1     0     0     0     0     0     0     0
+          <t>[ 7870  2340 11533  4689  1102  2077    23  1285   267   349   134    15
+   214     4    26    12     3     2     0     4     0     1     1     0
+     0     0     0     1     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -719,10 +875,10 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 7752  2483 11986  4677  1107  1979    21  1175   258   363   116    15
-   166     4    29     9     1    11     0     1     1     0     0     1
-     0     0     0     0     0     0     0     1     0     1     2     0
-     1     0     0     0     0     0     0     0     1     0     0     0
+          <t>[ 7553  2277 11947  4745  1207  2043    33  1302   248   352   133    16
+   177     7    12    12     2     6     0     3     0     0     1     0
+     0     0     0     0     1     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -734,22 +890,95 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[ 8345  2524 11811  4107  1119  1975    40  1245   201   338   162    12
-   173     7    36     9     0     5     1     1     1     0     1     0
-     1     0     2     0     1     2     1     7     0     0     0     0]</t>
+          <t>[ 7565  2424 11722  4610  1267  2063    16  1245   298   366   181    21
+   213     4    17     9     4     7     0     1     0     0     0     0
+     0     0     0     1     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[7194 2173 9992 4266  965 1743   21 1018  241  289  105    8  171    3
-   17   12    3    2    0    1    0    0    0    0    0    0    0    0
-    0    0    0    0    0    0    0    0]</t>
+          <t>[ 7246  1851 10017  4248   955  1617    20  1036   205   277   112    12
+   150     3    20    12     1     0     0     1     0     0     0     0
+     0     0     1     0     1     0     0     0     0     0     0     0]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[ 959  569 1357  483  177  200    4  175   27   20   16    0   18    0
-    3    1    0    0    0    0    0    0    0    0    0    0    0    0
+          <t>[ 7759  2626 10712  4527  1468  2405    83  1382   280   394   182    26
+   186     3    34    12     8    10     1     4     0     0     0     0
+     2     1     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[6990 1928 9180 4103 1238 2316   53 1277  205  342  159   16  162    0
+   31   16    3    9    1    6    0    2    0    0    0    0    0    0
+    0    1    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    1    0    1    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[ 7854  2019 10214  4663  1525  2899    51  1613   252   398   294    39
+   212     4    40    21     8    10     0     7     0     0     0     0
+     1     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     1     0     0     0     1     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[ 7966  2239 10914  4678  1368  2517    64  1345   251   362   224    13
+   201     5    27    10     5     4     0     3     1     0     0     1
+     2     0     0     0     0     1     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[ 7776  2488 10778  4663  1239  2510    92  1344   251   359   206    35
+   244     7    33    15     5    13     1    10     2     1     3     2
+     7     1     9     2     3     0     0     1     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[7082 2159 9593 4061 1201 2211   44 1202  238  308  154   10  155   12
+   41    9    5   10    1    2    0    3    2    0    3    1    2    0
+    1    0    1    1    0    0    0    0]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[ 869  502 1358  508  202  265   12  156   36   35   23    0   18    1
+    5    2    0    3    0    1    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
@@ -762,37 +991,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[2748 2640 2759 2945 2518 2504 2592 3453 1913 2778 2515 2894]</t>
+          <t>[6124   96 5294   28 5865 1563  133 5606  131 4999   36 2275]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[2560 1829 2705 2267 2421 2262 2244 2792 1875 2711 2115 2294]</t>
+          <t>[5536   36 4806  173 5425  791   44 4830   42 5105   47 1737]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[2447 2753 3252 2410 2816 2368 2944 2850 2437 2878 2299 2679]</t>
+          <t>[5942   26 5442   44 6073 1056  122 5233   73 5865   45 2131]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[5950   90 5389   59 5930 1293   76 5590  206 5526  129 2023]</t>
+          <t>[6118  132 5989   93 6074 1070   87 4821  196 5449  164 1984]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[3082 2234 2974 2675 3054 2863 2433 3133 2198 2679 2586 2316]</t>
+          <t>[5666   23 5478   23 6380 1334  103 5370   51 5503   38 2165]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[5548   19 4520   24 5151  945   31 4855   20 5020   97 2094]</t>
+          <t>[5617   82 4805  101 5355  874   33 4408  103 4799   84 1624]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[831   1 576   0 696 313   1 620  19 576   1 390]</t>
+          <t>[5978   82 5339   77 6351 1324  241 5191   89 5369   41 2123]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[5179   44 4990   32 5456 1138   82 4410   91 4875   27 1816]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[5936   22 5535   18 6348 1240  103 5245   38 5631   34 2076]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[6081   87 5384   49 5854  946  144 5152  119 6053   52 2380]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[5542  236 5430  203 6119 1412  380 4638  237 5684  134 2185]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>[5269   58 4913   77 5452 1210   69 4691   97 4890   50 1836]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[864   4 644   3 754 243   4 558   5 591   4 337]</t>
         </is>
       </c>
     </row>
@@ -804,37 +1063,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'C': 2748, 'C#': 2640, 'D': 2759, 'D#': 2945, 'E': 2518, 'F': 2504, 'F#': 2592, 'G': 3453, 'G#': 1913, 'A': 2778, 'A#': 2515, 'B': 2894}</t>
+          <t>{'C': 6124, 'C#': 96, 'D': 5294, 'D#': 28, 'E': 5865, 'F': 1563, 'F#': 133, 'G': 5606, 'G#': 131, 'A': 4999, 'A#': 36, 'B': 2275}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'C': 2560, 'C#': 1829, 'D': 2705, 'D#': 2267, 'E': 2421, 'F': 2262, 'F#': 2244, 'G': 2792, 'G#': 1875, 'A': 2711, 'A#': 2115, 'B': 2294}</t>
+          <t>{'C': 5536, 'C#': 36, 'D': 4806, 'D#': 173, 'E': 5425, 'F': 791, 'F#': 44, 'G': 4830, 'G#': 42, 'A': 5105, 'A#': 47, 'B': 1737}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 2447, 'C#': 2753, 'D': 3252, 'D#': 2410, 'E': 2816, 'F': 2368, 'F#': 2944, 'G': 2850, 'G#': 2437, 'A': 2878, 'A#': 2299, 'B': 2679}</t>
+          <t>{'C': 5942, 'C#': 26, 'D': 5442, 'D#': 44, 'E': 6073, 'F': 1056, 'F#': 122, 'G': 5233, 'G#': 73, 'A': 5865, 'A#': 45, 'B': 2131}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 5950, 'C#': 90, 'D': 5389, 'D#': 59, 'E': 5930, 'F': 1293, 'F#': 76, 'G': 5590, 'G#': 206, 'A': 5526, 'A#': 129, 'B': 2023}</t>
+          <t>{'C': 6118, 'C#': 132, 'D': 5989, 'D#': 93, 'E': 6074, 'F': 1070, 'F#': 87, 'G': 4821, 'G#': 196, 'A': 5449, 'A#': 164, 'B': 1984}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'C': 3082, 'C#': 2234, 'D': 2974, 'D#': 2675, 'E': 3054, 'F': 2863, 'F#': 2433, 'G': 3133, 'G#': 2198, 'A': 2679, 'A#': 2586, 'B': 2316}</t>
+          <t>{'C': 5666, 'C#': 23, 'D': 5478, 'D#': 23, 'E': 6380, 'F': 1334, 'F#': 103, 'G': 5370, 'G#': 51, 'A': 5503, 'A#': 38, 'B': 2165}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'C': 5548, 'C#': 19, 'D': 4520, 'D#': 24, 'E': 5151, 'F': 945, 'F#': 31, 'G': 4855, 'G#': 20, 'A': 5020, 'A#': 97, 'B': 2094}</t>
+          <t>{'C': 5617, 'C#': 82, 'D': 4805, 'D#': 101, 'E': 5355, 'F': 874, 'F#': 33, 'G': 4408, 'G#': 103, 'A': 4799, 'A#': 84, 'B': 1624}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'C': 831, 'C#': 1, 'D': 576, 'D#': 0, 'E': 696, 'F': 313, 'F#': 1, 'G': 620, 'G#': 19, 'A': 576, 'A#': 1, 'B': 390}</t>
+          <t>{'C': 5978, 'C#': 82, 'D': 5339, 'D#': 77, 'E': 6351, 'F': 1324, 'F#': 241, 'G': 5191, 'G#': 89, 'A': 5369, 'A#': 41, 'B': 2123}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>{'C': 5179, 'C#': 44, 'D': 4990, 'D#': 32, 'E': 5456, 'F': 1138, 'F#': 82, 'G': 4410, 'G#': 91, 'A': 4875, 'A#': 27, 'B': 1816}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{'C': 5936, 'C#': 22, 'D': 5535, 'D#': 18, 'E': 6348, 'F': 1240, 'F#': 103, 'G': 5245, 'G#': 38, 'A': 5631, 'A#': 34, 'B': 2076}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{'C': 6081, 'C#': 87, 'D': 5384, 'D#': 49, 'E': 5854, 'F': 946, 'F#': 144, 'G': 5152, 'G#': 119, 'A': 6053, 'A#': 52, 'B': 2380}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{'C': 5542, 'C#': 236, 'D': 5430, 'D#': 203, 'E': 6119, 'F': 1412, 'F#': 380, 'G': 4638, 'G#': 237, 'A': 5684, 'A#': 134, 'B': 2185}</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{'C': 5269, 'C#': 58, 'D': 4913, 'D#': 77, 'E': 5452, 'F': 1210, 'F#': 69, 'G': 4691, 'G#': 97, 'A': 4890, 'A#': 50, 'B': 1836}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{'C': 864, 'C#': 4, 'D': 644, 'D#': 3, 'E': 754, 'F': 243, 'F#': 4, 'G': 558, 'G#': 5, 'A': 591, 'A#': 4, 'B': 337}</t>
         </is>
       </c>
     </row>
@@ -845,25 +1134,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.05</v>
+        <v>4.24</v>
       </c>
       <c r="C12" t="n">
-        <v>103.3</v>
+        <v>3.42</v>
       </c>
       <c r="D12" t="n">
-        <v>128.43</v>
+        <v>3.1</v>
       </c>
       <c r="E12" t="n">
-        <v>5.6</v>
+        <v>6.72</v>
       </c>
       <c r="F12" t="n">
-        <v>121.26</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>4.03</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47</v>
+        <v>5.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="13">
@@ -874,114 +1181,210 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[677  52 462 232  69  98   7 215  38 262 505 125]
- [ 39 734 107 408 254  26 115   5 113  88 142 601]
- [575 113 621 137 423 211  63 173   4 138  93 199]
- [228 423 188 987  61 464 198 104 116   1 124  43]
- [ 79 234 476  79 528  56 453 250  44 157   7 141]
- [121  52 242 505  60 555  78 580 116  52 137   3]
- [  4 143  93 187 513  95 689 108 313 198  46 193]
- [207   0 168 117 267 648 138 927  60 511 311  85]
- [ 27  85   2 133  34 124 401  76 532  61 283 153]
- [214  85 127   6 175  77 224 589  74 596  73 534]
- [456 119  87 108   2 134  50 336 337 118 699  58]
- [109 593 183  40 128   6 169  85 160 586  82 742]]</t>
+          <t>[[1605   14 1511    6  498   91    3  496    5  996    5  876]
+ [   7   36   16    6    3    4    3    0    0    6    4   10]
+ [1610   12 1161    2 1620   95   12  330    1  241    2  191]
+ [   5    4    0    5    1    5    0    1    2    0    3    1]
+ [ 549    5 1805    2 1317  477   43 1112    4  412    1  122]
+ [  52    3  100    5  561  468    2  303    8   44    2    8]
+ [   2    0   20    0   51    1   19   23    4    7    0    6]
+ [ 469    2  333    0 1187  334   27 1657    6 1456    4  113]
+ [   4    4    3    0    8    7    0    6   68   18    5    6]
+ [ 989    7  223    1  480   61   14 1458   23 1190    3  535]
+ [   6    6    2    0    2    4    1    3    5    2    4    1]
+ [ 802    3  116    1  103   14    9  194    5  616    3  404]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[643  78 549 120  89 110   7 151  36 305 301 160]
- [ 92 449  57 406  83  36  91   5  88  37 167 311]
- [629  72 671  40 518 195  54 176   5 134  43 157]
- [124 399  56 669  83 440 176  46 109   2 115  40]
- [ 85  83 603  90 601  99 324 238  28 144   3 115]
- [ 94  59 195 502 114 542  63 413 140  49  81   4]
- [  5 103  65 179 377  92 611 119 316 191  73 106]
- [135   3 154  26 264 430 127 787  48 603 135  69]
- [ 35 100   1 104  33 149 389  37 454  55 415  96]
- [290  32 142   2 149  58 214 611  72 602  77 454]
- [283 132  30  88   4 103  64 127 482  87 590 117]
- [139 312 169  37  98   1 118  70  93 489 106 654]]</t>
+          <t>[[1427    3 1419   14  470   51    1  361    0 1122    9  646]
+ [   2    5    6   12    2    1    0    0    0    2    6    0]
+ [1601    8  988   11 1500   45    6  311    1  177    3  132]
+ [   4   15   15  103    4   12    0    3    4    2    8    2]
+ [ 413    1 1714    8 1318  295   19 1102    3  457    1   80]
+ [  24    0   43   16  331  153    1  174    6   36    0    2]
+ [   0    0    2    0   24    0    7    4    1    4    1    1]
+ [ 325    2  310    0 1182  187    5 1274    3 1446    1   80]
+ [   2    0    0    1    3    9    0    3    7    9    5    2]
+ [1145    2  233    2  492   24    5 1421    8 1303    3  448]
+ [   5    0    4    6    5    7    0    1    9    1    8    1]
+ [ 569    0   70    0   65    5    0  146    0  528    2  343]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[547  52 491 183  70 100   3 152  36 259 429 122]
- [ 52 696 188 469 211  54 134   8 169  62 227 468]
- [552 219 902 121 552 181  74 163   9 171  59 236]
- [199 496 128 515 109 402 209  58 109   1 132  46]
- [ 75 199 626 118 653 102 448 225  77 130   7 145]
- [106  75 207 452 117 558 108 411 160  51 111   5]
- [  7 156  91 248 503 106 850 111 475 152  69 168]
- [123  11 152  55 274 511 134 704 124 570 135  46]
- [ 55 132   8 115  52 168 601 149 493 112 361 186]
- [244  37 177   6 143  67 155 622 114 770 102 437]
- [391 184  57  75   7 100  95 165 434 130 580  74]
- [ 84 483 217  46 123   9 126  78 230 455  80 738]]</t>
+          <t>[[1534    1 1598    3  465   46    1  403    4 1057   12  802]
+ [   3    5    5    5    1    1    0    0    0    3    3    0]
+ [1612    5 1256    4 1739   53   11  314    1  267    3  158]
+ [   5    5    7   11    1    8    0    0    0    1    2    1]
+ [ 522    2 1856    5 1429  383   37 1170    3  534    1  112]
+ [  31    0   54   10  411  285    1  203    8   45    1    4]
+ [   1    0   10    0   43    0   31   12    1   19    0    4]
+ [ 368    1  325    1 1251  217   21 1418    4 1528    3   82]
+ [   9    1    2    0    5    5    0    4   30    9    4    3]
+ [1164    1  256    1  599   44   15 1524   12 1673    2  560]
+ [  16    2    0    4    0    1    0    2    5    4   10    1]
+ [ 658    3   69    0   95   10    5  162    5  708    4  402]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[1587    3 1548    5  466   58    1  408    5 1060   18  776]
- [   7   35    3    6    1    6    2    0   12    0   18    0]
- [1682    5 1243    2 1700   56    2  300    2  224    4  143]
- [   4   10    5   13    3   18    1    0    2    0    2    0]
- [ 478    2 1967    6 1243  472   14 1129    2  496    1  110]
- [  34    1   44   14  557  346    7  215   15   49    6    1]
- [   3    2    4    3   22    3   20    1    6    7    2    3]
- [ 405    1  309    1 1323  247    7 1535    4 1642    4   92]
- [   5   10    1    5    6   24    5    4   93    9   41    3]
- [1111    1  197    0  468   47   11 1778   16 1379    4  495]
- [  12   18    2    4    5    8    4    1   45    3   27    0]
- [ 604    2   63    0  101    6    1  191    4  646    2  398]]</t>
+          <t>[[1541    5 1712    9  495   70    2  367    3 1112   14  772]
+ [   4   37   11   23    3   11    1    1    9    5   22    4]
+ [1782    8 1440    7 1894   70    7  330    1  257    6  168]
+ [   6   27   11   21    1   12    0    2    6    1    4    1]
+ [ 546    3 2066    0 1346  351   22 1134    6  494    3   95]
+ [  45    4   61   18  392  291    6  168   27   31   10    8]
+ [   1    3    7    1   29    4   15    7    4    9    0    6]
+ [ 353    0  333    1 1201  186   27 1129    4 1477    2   90]
+ [   8   17    2    4    7   23    1    1   74   10   41    6]
+ [1139    4  260    1  593   29    4 1479    9 1432    7  476]
+ [  12   18    5    4    4   12    0    2   44    6   52    5]
+ [ 649    6   80    4   79    9    2  186    9  596    3  352]]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[761  63 633 158  46 164   6 156  58 253 587 182]
- [ 70 529 114 364 256  29 107   3 114  56 161 426]
- [724 117 737  94 413 272  46 190   0 151  73 149]
- [167 398 119 872 123 464 134  70 128   6 126  63]
- [ 63 235 508 149 877  92 565 197  69 136   1 158]
- [152  43 321 518 124 764  57 571 125  65 108   4]
- [  3 133  53 155 632  67 662 114 311 144  36 116]
- [158   5 160  61 214 678 140 849  82 496 222  56]
- [ 48  95   3 127  67 138 403 101 574  67 424 140]
- [207  54 110   3 168  60 155 620  96 661 134 407]
- [535 148  73 120   3 127  41 201 468 175 657  30]
- [185 411 133  43 119   5 112  49 169 456  48 576]]</t>
+          <t>[[1330    2 1583    0  510   63    1  373    5 1042    4  740]
+ [   1    2    8    3    3    0    0    1    0    1    1    2]
+ [1675    7 1221    2 1733   76   10  309    2  259    3  164]
+ [   0    1    3    4    1    8    0    1    1    0    2    1]
+ [ 602    3 1894    2 1572  469   29 1167    3  485    0  132]
+ [  42    0   59    8  518  368    7  265    3   55    2    2]
+ [   1    0    6    0   34    3   19   13    1   17    0    7]
+ [ 368    4  350    1 1309  286   24 1424    5 1471    1  112]
+ [   0    1    2    1    5    4    2    5   11   13    4    3]
+ [1019    0  252    0  565   54    9 1583   11 1399    4  588]
+ [   2    1    3    2    2    2    0    5    5    0   16    0]
+ [ 610    2   96    0   98    1    2  197    4  737    1  412]]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[[1614    0 1329    0  421   39    0  405    0  932   14  777]
- [   0    5    3    3    1    3    1    0    0    0    3    0]
- [1434    6 1047    2 1366   44    3  250    1  190   10  148]
- [   6    2    2    1    0    6    0    0    0    0    5    1]
- [ 393    1 1582    2 1223  317   13 1120    4  380    1   98]
- [  25    0   35   10  351  268    0  189    3   48    6    6]
- [   0    0    5    0   11    0    5    4    1    4    0    1]
- [ 359    1  246    2 1174  214    4 1358    2 1397    1   82]
- [   0    1    0    1    1    2    0    1    1    9    3    1]
- [ 993    0  178    0  505   34    5 1308    5 1394    0  583]
- [   9    3    8    3    4    7    0    5    1    5   52    0]
- [ 692    0   84    0   64    8    0  194    2  639    2  397]]</t>
+          <t>[[1676    2 1496   10  398   40    0  337    3 1033   12  587]
+ [   5   22   15    5    6   12    1    1    6    3    3    2]
+ [1513   18 1149    6 1481   43    2  257    0  192    1  123]
+ [   5   13    4   39   11   12    1    0    7    1    7    1]
+ [ 434    7 1625   16 1478  283    5 1020    2  385    2   84]
+ [  22    7   37   10  356  265    2  126   13   29    2    1]
+ [   0    2    0    1   10    3    6    2    2    3    2    1]
+ [ 346    0  252    0 1058  155    7 1182    2 1324    5   66]
+ [   5    4    0    6    4    8    0    1   34   18   13    5]
+ [1096    4  172    1  457   34    7 1316   19 1222    8  451]
+ [   8    2    4    7    5    8    2    3   13    9   23    0]
+ [ 486    1   46    0   59    9    0  149    2  557    6  300]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[[211   0 203   0  59  19   0  48   1 104   0 183]
- [  0   0   0   0   0   0   0   0   1   0   0   0]
- [200   1 106   0 180  10   0  36   0  18   0  23]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [ 71   0 200   0 144  81   0 110   2  71   0  13]
- [ 12   0   7   0 109 116   0  58   1   7   0   2]
- [  0   0   0   0   1   0   0   0   0   0   0   0]
- [ 50   0  32   0 146  77   0 179   1 109   0  24]
- [  2   0   0   0   0   0   0   1  11   3   1   1]
- [ 91   0  18   0  51   8   1 153   2 158   0  92]
- [  1   0   0   0   0   0   0   0   0   0   0   0]
- [188   0  10   0   6   2   0  30   0 101   0  52]]</t>
+          <t>[[1639   11 1398    4  547   96    6  454   10 1001    3  797]
+ [   5   12   12    8    8    3    7    7    5    8    3    3]
+ [1498   18 1223    5 1610  105   23  338    5  306    7  185]
+ [   6    8    8    7   11   10   13    5    3    3    1    1]
+ [ 611    7 1786   21 1648  441   52 1086    4  546    4  121]
+ [  66    3  110   12  512  291    5  222   19   69    4   10]
+ [  14    4   31    5   45   10   59   42    2   23    2    3]
+ [ 459    4  390    4 1195  265   41 1288   10 1397    1  117]
+ [   5    0    5    5    8   19    2   10   13    7    7    7]
+ [ 993    7  261    3  632   61   27 1495   11 1377    2  485]
+ [   2    5    5    2    5    3    2    2    4    6    3    2]
+ [ 665    3  106    1   91   18    4  222    3  611    4  387]]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[[1342    3 1214    2  478   83    6  433   10  997    3  592]
+ [   4    8    4    4    3    4    1    3    9    1    1    2]
+ [1336    5 1240    3 1473  110    6  332    5  305    4  151]
+ [   2    3    3    4    4    3    2    3    5    0    2    0]
+ [ 503    5 1655    5 1352  350   23  916    1  493    3  136]
+ [  66    3   99    5  417  287    4  183    6   48    1   11]
+ [   5    3    5    1   26    5   12    8    2   10    1    3]
+ [ 414    2  348    2 1013  215   10 1132    5 1135    0  118]
+ [   8    7    5    3    5   14    5    3   16   12    4    6]
+ [ 992    0  304    1  537   51   10 1178   12 1368    0  407]
+ [   1    2    2    1    3    3    0    2    7    1    4    1]
+ [ 490    3  107    1  117   10    3  192   13  483    4  387]]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[[1560    1 1403    1  611  114    5  538    6 1041    3  644]
+ [   2    3    2    4    0    1    2    1    1    2    3    1]
+ [1556    1 1305    2 1564   98    7  383    3  419    1  177]
+ [   2    2    3    0    3    3    1    1    0    0    2    0]
+ [ 612    1 1747    1 1603  365   24 1164    5  633    1  168]
+ [  75    2   91    3  427  299    2  242    5   73    3   13]
+ [   3    4   12    1   21    2   17   15    0   19    2    6]
+ [ 482    1  424    2 1233  249   25 1352    6 1312    1  140]
+ [   3    2    2    0    3    5    1    6    2    8    3    3]
+ [1083    3  401    2  723   81   13 1299    5 1501    1  507]
+ [   3    1    0    2    0    0    2    3    5    3   12    3]
+ [ 533    1  136    0  143   20    4  217    0  595    2  414]]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[[1586    8 1469    3  503   51    5  474    7 1162    3  785]
+ [   6   24    7    4    5    2    6    3   13    2    7    6]
+ [1558    3 1289    6 1572   81    7  329    2  340    5  185]
+ [   0    5    7    9    9    4    3    0    5    4    3    0]
+ [ 556    4 1739   12 1435  320   39 1034   10  547    3  132]
+ [  48    5   67    5  357  225    3  155    8   58    2    9]
+ [   3    5   18    0   41    2   27   11    9   18    1    7]
+ [ 471    3  361    1 1146  171   17 1322    6 1485    2  152]
+ [   7   11    9    5   12   11    5    3   28   14   10    4]
+ [1160    4  304    0  597   47   24 1577   11 1714    2  596]
+ [   5    6    3    4    2    7    2    0    7    2   11    2]
+ [ 662    9  107    0  142   21    6  223   13  691    3  499]]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[[1392   15 1405    6  478   76   13  369    7 1023    5  740]
+ [   6   50   15   50   14   15   24    6   24    5   17    4]
+ [1432   13 1324    4 1651   83   18  338    5  345    2  196]
+ [   6   44    5   43   10   29   18    4   21    4   18    0]
+ [ 497   12 1798   11 1514  433   50 1057   13  558    5  156]
+ [  52   19   90   30  474  391   35  214   23   53   17    7]
+ [  10   18   18   15   54   39  104   27   46   33    9    4]
+ [ 394    5  328    3 1149  230   30 1104   10 1270    4  100]
+ [   7   27   10   18   13   19   41    7   48   19   26    1]
+ [1103    6  317    4  608   64   24 1332   18 1619    1  569]
+ [   5   22    0   18    9   17   11    1   13    7   30    0]
+ [ 614    5  116    1  119   15   12  157    8  726    0  408]]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[[1353    1 1321    4  470   82    2  470    7  893    6  645]
+ [   5    6    6    7    7    7    3    3    3    4    7    0]
+ [1458    4 1254    4 1370   99    5  328    5  206    3  160]
+ [   4   11    8   14    7   15    2    6    5    1    3    0]
+ [ 483    4 1565    7 1371  387   11  992    4  504    3   99]
+ [  43    9  101   18  457  320    8  178   11   43    8   10]
+ [   2    3    6    2   17    3   10    8    4   10    2    2]
+ [ 408    0  332    4 1050  224   13 1190   12 1319    1  123]
+ [   6    6    5    8    6    6    4    8   24   13    7    4]
+ [ 921    7  228    2  564   49    7 1281   10 1350    0  449]
+ [   2    5    3    7    2    6    2    4    5    2    8    4]
+ [ 568    2   80    0  106   11    2  196    7  518    2  340]]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[[232   0 216   1  75  18   0  57   1 108   1 151]
+ [  0   1   1   0   0   0   0   0   1   1   0   0]
+ [215   1 121   0 197  17   0  35   1  24   0  30]
+ [  0   1   2   0   0   0   0   0   0   0   0   0]
+ [ 76   0 212   0 170  86   1 114   0  66   3  23]
+ [ 19   0  17   2 105  58   0  35   0   4   0   3]
+ [  0   0   2   0   0   0   1   0   0   1   0   0]
+ [ 49   0  36   0 134  46   1 118   1 147   0  25]
+ [  0   0   1   0   0   0   1   0   1   2   0   0]
+ [115   1  25   0  62  15   0 159   0 145   0  65]
+ [  0   0   3   0   1   0   0   0   0   0   0   0]
+ [153   0   8   0  10   3   0  35   0  88   0  40]]</t>
         </is>
       </c>
     </row>
@@ -992,25 +1395,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.59</v>
+        <v>321.5</v>
       </c>
       <c r="C14" t="n">
-        <v>280.75</v>
+        <v>285.72</v>
       </c>
       <c r="D14" t="n">
-        <v>321.33</v>
+        <v>320.52</v>
       </c>
       <c r="E14" t="n">
-        <v>322.61</v>
+        <v>321.77</v>
       </c>
       <c r="F14" t="n">
-        <v>322.27</v>
+        <v>321.34</v>
       </c>
       <c r="G14" t="n">
-        <v>283.24</v>
+        <v>278.85</v>
       </c>
       <c r="H14" t="n">
-        <v>268.27</v>
+        <v>322.05</v>
+      </c>
+      <c r="I14" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>322.26</v>
+      </c>
+      <c r="K14" t="n">
+        <v>323.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>322</v>
+      </c>
+      <c r="M14" t="n">
+        <v>286.12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>267.4</v>
       </c>
     </row>
     <row r="15">
@@ -1020,25 +1441,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.18</v>
+        <v>5.85</v>
       </c>
       <c r="C15" t="n">
-        <v>6.12</v>
+        <v>6.08</v>
       </c>
       <c r="D15" t="n">
-        <v>5.88</v>
+        <v>5.6</v>
       </c>
       <c r="E15" t="n">
-        <v>6.19</v>
+        <v>5.8</v>
       </c>
       <c r="F15" t="n">
-        <v>6.16</v>
+        <v>5.74</v>
       </c>
       <c r="G15" t="n">
-        <v>6.17</v>
+        <v>6.08</v>
       </c>
       <c r="H15" t="n">
-        <v>6.29</v>
+        <v>5.93</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
@@ -1048,25 +1487,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="C16" t="n">
-        <v>2.76</v>
+        <v>2.83</v>
       </c>
       <c r="D16" t="n">
-        <v>2.97</v>
+        <v>3.09</v>
       </c>
       <c r="E16" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="F16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.8</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.57</v>
+      <c r="N16" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="17">
@@ -1077,51 +1534,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[  528  8472 14567  2018  3196   370   837   240   600   113   244    69
-   282    64   144    46   179    26    66     8    53    13    16     6
-    17     4    10     0     4     1     2     0]</t>
+          <t>[ 1336  6447 14283  2533  3668   318  1014   230   650   110   309    82
+   324    58   219    45   203    28    78     6    75     4    30     6
+    14     7     4     2     7     0     1     0]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[  405  7344 12320  2681  2580   233   526   200   484   109   214    80
-   218    55   149    39   168    30    34    12    54    10    22     1
-    24     2     6     0     5     0     3     0]</t>
+          <t>[  789  7380 11082  2872  3174   339   726   271   614   146   202    97
+   268    62    91    56   187    28    20    10    30     6    13     3
+    14     2     7     5     8     1     0     0]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[  437  8639 13422  2117  3420   389   984   268   672   162   289    88
-   310    71   171    49   206    41    82    24    72    10    39     7
-    50     7     9     7    13     0     3     1]</t>
+          <t>[  858  6090 14968  2188  3668   337   897   271   766   156   310   108
+   369    83   229    78   364    44    64    11    57     5    11     3
+    18     4     5     1     7     2     3     2]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[  466  7755 15304  1799  3745   224   884   184   530   100   306    55
-   236    54   137    29   155    14    50    11    63     6    28     5
-    26     5    15     1     4     2     1     0]</t>
+          <t>[  916  5474 16006  2213  4049   323   870   187   633    98   344    64
+   286    53   201    29   237    12    60     8    25     5    10     1
+     8     0     6     0     4     0     2     0]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[  593  9028 13445  2301  3367   369   774   221   590   131   256    67
-   268    71   144    38   218    33    70    20    57     7    22     6
-    32     4    14     1    11     3     3     1]</t>
+          <t>[ 1041  6415 14526  2161  4164   314   938   256   690   116   281   109
+   313    53   180    52   187    26    69    17    68    12    27     6
+    24     2     7     3     6     2     2     0]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[  741  7122 11713  2598  2737   325   781   281   600   105   202    95
-   285    60   124    59   261    25    41     8    38     2     4     4
-    14     0     2     3    14     5     1     0]</t>
+          <t>[  686  7283 11026  2915  2824   392   541   261   579   125   151   103
+   268    66    97    49   291    35    23    16    43     7     7     4
+    12     3     3     4     4     0     0     0]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[  79 1278 1302  621  380   68   56   32   85   16   14   10   20    8
-    9    6   22    7    3    0    2    0    1    0    0    0    0    0
-    1    0    0    0]</t>
+          <t>[  982  7196 13905  2551  3855   375   883   280   740   111   266    67
+   251    57   174    50   213    22    73    13    28     1     8     1
+    16     2     6     1     4     0     3     0]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[  858  6634 11628  3043  3034   275   589   216   509    94   171    68
+   256    64   116    39   209    35    66    12    72     4    17     3
+    32     1     4     3    11     2     2     0]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[ 1459  6602 14681  1752  3660   436  1014   257   717   119   357    86
+   349    50   199    56   172    30    51    10    43     7    15     2
+    15     4     6     2     2     0     0     0]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[ 1166  7517 15133  2141  2836   445   820   248   589   154   262    74
+   220    63   161    63   169    28    52    14    32    11    12     3
+     9     4     5     1     3     0     1     0]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[ 1105  7312 14032  2260  3482   390   942   294   729   154   341   103
+   328    84   177    50   179    30    42     6    39     3    15     2
+    10     4     3     3     5     0     1     0]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[1007 7938 9804 3678 3091  387  493  260  533  113  152   82  263   68
+  140   60  275   46   44   10   46    6    3    3    6    2    0    0
+    3    1    0    0]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[ 187 1507  897  742  314   60   52   34   72    8   15    8   36   12
+    8   14   25    2    1    5    4    0    0    0    0    0    0    0
+    0    0    0    0]</t>
         </is>
       </c>
     </row>
@@ -1132,24 +1631,42 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.48</v>
+        <v>4.89</v>
       </c>
       <c r="C18" t="n">
-        <v>5.99</v>
+        <v>6.1</v>
       </c>
       <c r="D18" t="n">
-        <v>4.79</v>
+        <v>5.16</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="F18" t="n">
-        <v>4.66</v>
+        <v>4.92</v>
       </c>
       <c r="G18" t="n">
-        <v>6.07</v>
+        <v>6.1</v>
       </c>
       <c r="H18" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="N18" t="n">
         <v>6.25</v>
       </c>
     </row>
@@ -1161,29 +1678,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[  657 12503  4483  7431  1122  1746     0  1702     1   405   217   453
-   124   160     1   347     0   110    41   115    34    61     0   120
-     0    52    15    69    15    27     0    58     0    14     6    35
-     2    11     0    22     0     5     5    14     2     1     0     9
-     0     1     3     6     0     0     0     5     0     0     2     1
-     0     0     0    17]</t>
+          <t>[  225 10911  5577  7186  1134  1578     0  2345     0   529   214   495
+   191   217     0   444     0   131    69   138    77    87     0   151
+     0    49    32    49    19    49     0    65     1    16     1    23
+     6     5     0    38     0     5     1    16     1     2     0    15
+     0     5     1     5     0     5     0     3     0     3     1     3
+     1     0     0     9]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[   13 11585     0  7028     0  1017     0  5132     0   348     0   327
-     0   144     0  1358     0    95     0   158     0    51     0   108
-     0    36     9    55    14    16     0   251     0    12     6    25
-     1     3     0   124     0     1     2     4     0     0     0    15
-     0     5     0     8     0     0     0    33     0     0     0     3
-     0     1     0    56]</t>
+          <t>[    3 10863     0  7268     0  1554     1  5158     0   527     1   571
+     0   193     0  1379     0   108     0   116     0    82     0    98
+     0    39    13    42    16    15     0   218     0     5     2    19
+     2     7     0   147     0     2     3     9     5     1     0     3
+     0     0     0     3     0     0     0    34     0     1     0     2
+     0     0     0    35]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[  510 11845  3957  7467  1285  1660     0  2034     0   522   334   497
-   231   281     0   407     1   157    76   155    63    80     0   130
-     0    62    26    56    17    34     0   218     0     0     0     0
+          <t>[  260 10715  4941  7605  1423  1363     0  2007     1   467   277   528
+   165   237     0   501     0   177    81   202    72   122     0   214
+     0    67    45    83    33    41     0   393     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0]</t>
@@ -1191,29 +1708,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[  934 11304  4349  8014   923  1266     0  2889     0   373   176   437
-   142   159     0   419     0    95    54   148    36    49     0   150
-     0    41    20    41    13    16     0    63     0     5     6    14
-     4     5     0    15     0     7     1     9     2     3     0     9
-     0     0     2    10     0     0     0     2     0     3     0     1
-     0     3     0    10]</t>
+          <t>[  259 10534  5583  7702  1436  1938     0  2093     0   442   176   379
+   171   188     0   385     0   106    56   131    47    75     0   145
+     0    43    19    38    17    20     0    45     1    13     4    19
+     4     8     0    10     0     2     1     3     2     0     0     3
+     0     2     0     6     1     0     0     2     0     1     0     0
+     0     1     0    20]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[  622 12285  4555  7356  1103  1434     0  2144     0   407   163   497
-   115   175     0   384     0    98    37   126    37    56     0   135
-     0    52    20    58    18    22     0    99     0    16     6    23
-     4     5     0    28     0     5     1    18     3     6     0    31
-     0    10     3     4     0     2     0     4     0     0     1     0
-     0     1     0    29]</t>
+          <t>[ 412 9506 5368 8396 1217 1598    0 2614    0  404  234  508  162  189
+    0  492    0  127   64  134   46   74    0  152    0   50   26   59
+   17   35    0   83    1   17    8   18    4    4    0   24    0    3
+    2    9    0    0    0   10    0    1    1    7    0    1    0    7
+    0    0    1    2    0    0    0   12]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[   17 10088     0  7136     0  1491     0  5857     0   646     0   445
-   160   194     0  1224     0   122    44   102    47    57     0   102
-     0    36    27    33    10    24     0   422     0     0     0     0
+          <t>[   13 10484     0  6283     0  1418     0  6290     0   495     0   336
+   119   171     0  1190     0    90    46    96    34    68     1   116
+     0    44    22    31    13    28     0   470     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0]</t>
@@ -1221,9 +1737,69 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[   1 1186    0  918    0  243    0 1283    0   56    0   33   12   16
-    0  167    0    5   13    7    4    7    0   17    0    4    3    6
-    1    3    0   37    0    0    0    0    0    0    0    0    0    0
+          <t>[  422 11332  6425  6438  1497  1728     0  1611     0   461   274   331
+   186   161     0   312     0   114    58   108    44    87     0   154
+     0    46    27    53    26    42     0    78     0    27     8    30
+     6     7     0    16     0     7     8     7     3     3     0     3
+     0     3     3     2     0     1     0     2     0     0     2     0
+     1     0     0    17]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[    7 10364     0  6915     0  1475     0  5969     0   375     0   337
+     0   145     0  1337     0    96     0   105     0    54     0   127
+     0    48    15    53    14    34     0   248     0    17     9    34
+     2     6     0   164     0     5     5    11     1     1     0    12
+     0     5     3     4     1     0     0    57     0     0     0     4
+     0     1     0    53]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[  411 11039  5842  7449  1301  1622     0  1756     0   437   209   438
+   157   146     0   347     0   107    65   151    53    63     1   140
+     0    54    24    68    20    26     0   260     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[  263 11272  6167  8106  1238  1308     0  1303     0   430   220   418
+   151   181     0   340     0   129    70   104    50    69     0   123
+     0    46    34    41    21    27     0    71     1    31     4    16
+     0    12     0    10     1     3     3     2     2     1     0     5
+     0     2     1     0     0     1     0     1     0     0     0     0
+     0     0     0     4]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[  301 10511  5054  8430  1206  1766     0  1875     0   437   226   462
+   168   180     0   366     0   115    54   147    67    97     0   176
+     0    55    36    54    27    40     0   112     0    23    10    39
+     7     9     0    37     2     8     4     9     5     6     0    14
+     0     5     2     7     0     0     0     3     0     1     1     0
+     0     2     0    21]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[    5 10809     0  7753     0  1617     0  4952     1   391     0   436
+   144   140     0  1313     0   105    56   134    44    46     1   138
+     0    47    17    62    14    21     0   342     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[   2 1532    0  585    0  218    0 1217    0   59    0   32   24   30
+    0  205    0   14    4    9    6    7    0    6    0    2    0    1
+    4    2    0   50    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0]</t>
         </is>
@@ -1237,37 +1813,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{0: 17, 1: 657, 2: 12503, 3: 4483, 4: 7431, 5: 1122, 6: 1746, 7: 0, 8: 1702, 9: 1, 10: 405, 11: 217, 12: 453, 13: 124, 14: 160, 15: 1, 16: 347, 17: 0, 18: 110, 19: 41, 20: 115, 21: 34, 22: 61, 23: 0, 24: 120, 25: 0, 26: 52, 27: 15, 28: 69, 29: 15, 30: 27, 31: 0, 32: 58, 33: 0, 34: 14, 35: 6, 36: 35, 37: 2, 38: 11, 39: 0, 40: 22, 41: 0, 42: 5, 43: 5, 44: 14, 45: 2, 46: 1, 47: 0, 48: 9, 49: 0, 50: 1, 51: 3, 52: 6, 53: 0, 54: 0, 55: 0, 56: 5, 57: 0, 58: 0, 59: 2, 60: 1, 61: 0, 62: 0, 63: 0, 64: 17}</t>
+          <t>{0: 9, 1: 225, 2: 10911, 3: 5577, 4: 7186, 5: 1134, 6: 1578, 7: 0, 8: 2345, 9: 0, 10: 529, 11: 214, 12: 495, 13: 191, 14: 217, 15: 0, 16: 444, 17: 0, 18: 131, 19: 69, 20: 138, 21: 77, 22: 87, 23: 0, 24: 151, 25: 0, 26: 49, 27: 32, 28: 49, 29: 19, 30: 49, 31: 0, 32: 65, 33: 1, 34: 16, 35: 1, 36: 23, 37: 6, 38: 5, 39: 0, 40: 38, 41: 0, 42: 5, 43: 1, 44: 16, 45: 1, 46: 2, 47: 0, 48: 15, 49: 0, 50: 5, 51: 1, 52: 5, 53: 0, 54: 5, 55: 0, 56: 3, 57: 0, 58: 3, 59: 1, 60: 3, 61: 1, 62: 0, 63: 0, 64: 9}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: 56, 1: 13, 2: 11585, 3: 0, 4: 7028, 5: 0, 6: 1017, 7: 0, 8: 5132, 9: 0, 10: 348, 11: 0, 12: 327, 13: 0, 14: 144, 15: 0, 16: 1358, 17: 0, 18: 95, 19: 0, 20: 158, 21: 0, 22: 51, 23: 0, 24: 108, 25: 0, 26: 36, 27: 9, 28: 55, 29: 14, 30: 16, 31: 0, 32: 251, 33: 0, 34: 12, 35: 6, 36: 25, 37: 1, 38: 3, 39: 0, 40: 124, 41: 0, 42: 1, 43: 2, 44: 4, 45: 0, 46: 0, 47: 0, 48: 15, 49: 0, 50: 5, 51: 0, 52: 8, 53: 0, 54: 0, 55: 0, 56: 33, 57: 0, 58: 0, 59: 0, 60: 3, 61: 0, 62: 1, 63: 0, 64: 56}</t>
+          <t>{0: 35, 1: 3, 2: 10863, 3: 0, 4: 7268, 5: 0, 6: 1554, 7: 1, 8: 5158, 9: 0, 10: 527, 11: 1, 12: 571, 13: 0, 14: 193, 15: 0, 16: 1379, 17: 0, 18: 108, 19: 0, 20: 116, 21: 0, 22: 82, 23: 0, 24: 98, 25: 0, 26: 39, 27: 13, 28: 42, 29: 16, 30: 15, 31: 0, 32: 218, 33: 0, 34: 5, 35: 2, 36: 19, 37: 2, 38: 7, 39: 0, 40: 147, 41: 0, 42: 2, 43: 3, 44: 9, 45: 5, 46: 1, 47: 0, 48: 3, 49: 0, 50: 0, 51: 0, 52: 3, 53: 0, 54: 0, 55: 0, 56: 34, 57: 0, 58: 1, 59: 0, 60: 2, 61: 0, 62: 0, 63: 0, 64: 35}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 510, 2: 11845, 3: 3957, 4: 7467, 5: 1285, 6: 1660, 7: 0, 8: 2034, 9: 0, 10: 522, 11: 334, 12: 497, 13: 231, 14: 281, 15: 0, 16: 407, 17: 1, 18: 157, 19: 76, 20: 155, 21: 63, 22: 80, 23: 0, 24: 130, 25: 0, 26: 62, 27: 26, 28: 56, 29: 17, 30: 34, 31: 0, 32: 218}</t>
+          <t>{0: 0, 1: 260, 2: 10715, 3: 4941, 4: 7605, 5: 1423, 6: 1363, 7: 0, 8: 2007, 9: 1, 10: 467, 11: 277, 12: 528, 13: 165, 14: 237, 15: 0, 16: 501, 17: 0, 18: 177, 19: 81, 20: 202, 21: 72, 22: 122, 23: 0, 24: 214, 25: 0, 26: 67, 27: 45, 28: 83, 29: 33, 30: 41, 31: 0, 32: 393}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{0: 10, 1: 934, 2: 11304, 3: 4349, 4: 8014, 5: 923, 6: 1266, 7: 0, 8: 2889, 9: 0, 10: 373, 11: 176, 12: 437, 13: 142, 14: 159, 15: 0, 16: 419, 17: 0, 18: 95, 19: 54, 20: 148, 21: 36, 22: 49, 23: 0, 24: 150, 25: 0, 26: 41, 27: 20, 28: 41, 29: 13, 30: 16, 31: 0, 32: 63, 33: 0, 34: 5, 35: 6, 36: 14, 37: 4, 38: 5, 39: 0, 40: 15, 41: 0, 42: 7, 43: 1, 44: 9, 45: 2, 46: 3, 47: 0, 48: 9, 49: 0, 50: 0, 51: 2, 52: 10, 53: 0, 54: 0, 55: 0, 56: 2, 57: 0, 58: 3, 59: 0, 60: 1, 61: 0, 62: 3, 63: 0, 64: 10}</t>
+          <t>{0: 20, 1: 259, 2: 10534, 3: 5583, 4: 7702, 5: 1436, 6: 1938, 7: 0, 8: 2093, 9: 0, 10: 442, 11: 176, 12: 379, 13: 171, 14: 188, 15: 0, 16: 385, 17: 0, 18: 106, 19: 56, 20: 131, 21: 47, 22: 75, 23: 0, 24: 145, 25: 0, 26: 43, 27: 19, 28: 38, 29: 17, 30: 20, 31: 0, 32: 45, 33: 1, 34: 13, 35: 4, 36: 19, 37: 4, 38: 8, 39: 0, 40: 10, 41: 0, 42: 2, 43: 1, 44: 3, 45: 2, 46: 0, 47: 0, 48: 3, 49: 0, 50: 2, 51: 0, 52: 6, 53: 1, 54: 0, 55: 0, 56: 2, 57: 0, 58: 1, 59: 0, 60: 0, 61: 0, 62: 1, 63: 0, 64: 20}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{0: 29, 1: 622, 2: 12285, 3: 4555, 4: 7356, 5: 1103, 6: 1434, 7: 0, 8: 2144, 9: 0, 10: 407, 11: 163, 12: 497, 13: 115, 14: 175, 15: 0, 16: 384, 17: 0, 18: 98, 19: 37, 20: 126, 21: 37, 22: 56, 23: 0, 24: 135, 25: 0, 26: 52, 27: 20, 28: 58, 29: 18, 30: 22, 31: 0, 32: 99, 33: 0, 34: 16, 35: 6, 36: 23, 37: 4, 38: 5, 39: 0, 40: 28, 41: 0, 42: 5, 43: 1, 44: 18, 45: 3, 46: 6, 47: 0, 48: 31, 49: 0, 50: 10, 51: 3, 52: 4, 53: 0, 54: 2, 55: 0, 56: 4, 57: 0, 58: 0, 59: 1, 60: 0, 61: 0, 62: 1, 63: 0, 64: 29}</t>
+          <t>{0: 12, 1: 412, 2: 9506, 3: 5368, 4: 8396, 5: 1217, 6: 1598, 7: 0, 8: 2614, 9: 0, 10: 404, 11: 234, 12: 508, 13: 162, 14: 189, 15: 0, 16: 492, 17: 0, 18: 127, 19: 64, 20: 134, 21: 46, 22: 74, 23: 0, 24: 152, 25: 0, 26: 50, 27: 26, 28: 59, 29: 17, 30: 35, 31: 0, 32: 83, 33: 1, 34: 17, 35: 8, 36: 18, 37: 4, 38: 4, 39: 0, 40: 24, 41: 0, 42: 3, 43: 2, 44: 9, 45: 0, 46: 0, 47: 0, 48: 10, 49: 0, 50: 1, 51: 1, 52: 7, 53: 0, 54: 1, 55: 0, 56: 7, 57: 0, 58: 0, 59: 1, 60: 2, 61: 0, 62: 0, 63: 0, 64: 12}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 17, 2: 10088, 3: 0, 4: 7136, 5: 0, 6: 1491, 7: 0, 8: 5857, 9: 0, 10: 646, 11: 0, 12: 445, 13: 160, 14: 194, 15: 0, 16: 1224, 17: 0, 18: 122, 19: 44, 20: 102, 21: 47, 22: 57, 23: 0, 24: 102, 25: 0, 26: 36, 27: 27, 28: 33, 29: 10, 30: 24, 31: 0, 32: 422}</t>
+          <t>{0: 0, 1: 13, 2: 10484, 3: 0, 4: 6283, 5: 0, 6: 1418, 7: 0, 8: 6290, 9: 0, 10: 495, 11: 0, 12: 336, 13: 119, 14: 171, 15: 0, 16: 1190, 17: 0, 18: 90, 19: 46, 20: 96, 21: 34, 22: 68, 23: 1, 24: 116, 25: 0, 26: 44, 27: 22, 28: 31, 29: 13, 30: 28, 31: 0, 32: 470}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 1, 2: 1186, 3: 0, 4: 918, 5: 0, 6: 243, 7: 0, 8: 1283, 9: 0, 10: 56, 11: 0, 12: 33, 13: 12, 14: 16, 15: 0, 16: 167, 17: 0, 18: 5, 19: 13, 20: 7, 21: 4, 22: 7, 23: 0, 24: 17, 25: 0, 26: 4, 27: 3, 28: 6, 29: 1, 30: 3, 31: 0, 32: 37}</t>
+          <t>{0: 17, 1: 422, 2: 11332, 3: 6425, 4: 6438, 5: 1497, 6: 1728, 7: 0, 8: 1611, 9: 0, 10: 461, 11: 274, 12: 331, 13: 186, 14: 161, 15: 0, 16: 312, 17: 0, 18: 114, 19: 58, 20: 108, 21: 44, 22: 87, 23: 0, 24: 154, 25: 0, 26: 46, 27: 27, 28: 53, 29: 26, 30: 42, 31: 0, 32: 78, 33: 0, 34: 27, 35: 8, 36: 30, 37: 6, 38: 7, 39: 0, 40: 16, 41: 0, 42: 7, 43: 8, 44: 7, 45: 3, 46: 3, 47: 0, 48: 3, 49: 0, 50: 3, 51: 3, 52: 2, 53: 0, 54: 1, 55: 0, 56: 2, 57: 0, 58: 0, 59: 2, 60: 0, 61: 1, 62: 0, 63: 0, 64: 17}</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>{0: 53, 1: 7, 2: 10364, 3: 0, 4: 6915, 5: 0, 6: 1475, 7: 0, 8: 5969, 9: 0, 10: 375, 11: 0, 12: 337, 13: 0, 14: 145, 15: 0, 16: 1337, 17: 0, 18: 96, 19: 0, 20: 105, 21: 0, 22: 54, 23: 0, 24: 127, 25: 0, 26: 48, 27: 15, 28: 53, 29: 14, 30: 34, 31: 0, 32: 248, 33: 0, 34: 17, 35: 9, 36: 34, 37: 2, 38: 6, 39: 0, 40: 164, 41: 0, 42: 5, 43: 5, 44: 11, 45: 1, 46: 1, 47: 0, 48: 12, 49: 0, 50: 5, 51: 3, 52: 4, 53: 1, 54: 0, 55: 0, 56: 57, 57: 0, 58: 0, 59: 0, 60: 4, 61: 0, 62: 1, 63: 0, 64: 53}</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 411, 2: 11039, 3: 5842, 4: 7449, 5: 1301, 6: 1622, 7: 0, 8: 1756, 9: 0, 10: 437, 11: 209, 12: 438, 13: 157, 14: 146, 15: 0, 16: 347, 17: 0, 18: 107, 19: 65, 20: 151, 21: 53, 22: 63, 23: 1, 24: 140, 25: 0, 26: 54, 27: 24, 28: 68, 29: 20, 30: 26, 31: 0, 32: 260}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{0: 4, 1: 263, 2: 11272, 3: 6167, 4: 8106, 5: 1238, 6: 1308, 7: 0, 8: 1303, 9: 0, 10: 430, 11: 220, 12: 418, 13: 151, 14: 181, 15: 0, 16: 340, 17: 0, 18: 129, 19: 70, 20: 104, 21: 50, 22: 69, 23: 0, 24: 123, 25: 0, 26: 46, 27: 34, 28: 41, 29: 21, 30: 27, 31: 0, 32: 71, 33: 1, 34: 31, 35: 4, 36: 16, 37: 0, 38: 12, 39: 0, 40: 10, 41: 1, 42: 3, 43: 3, 44: 2, 45: 2, 46: 1, 47: 0, 48: 5, 49: 0, 50: 2, 51: 1, 52: 0, 53: 0, 54: 1, 55: 0, 56: 1, 57: 0, 58: 0, 59: 0, 60: 0, 61: 0, 62: 0, 63: 0, 64: 4}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{0: 21, 1: 301, 2: 10511, 3: 5054, 4: 8430, 5: 1206, 6: 1766, 7: 0, 8: 1875, 9: 0, 10: 437, 11: 226, 12: 462, 13: 168, 14: 180, 15: 0, 16: 366, 17: 0, 18: 115, 19: 54, 20: 147, 21: 67, 22: 97, 23: 0, 24: 176, 25: 0, 26: 55, 27: 36, 28: 54, 29: 27, 30: 40, 31: 0, 32: 112, 33: 0, 34: 23, 35: 10, 36: 39, 37: 7, 38: 9, 39: 0, 40: 37, 41: 2, 42: 8, 43: 4, 44: 9, 45: 5, 46: 6, 47: 0, 48: 14, 49: 0, 50: 5, 51: 2, 52: 7, 53: 0, 54: 0, 55: 0, 56: 3, 57: 0, 58: 1, 59: 1, 60: 0, 61: 0, 62: 2, 63: 0, 64: 21}</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 5, 2: 10809, 3: 0, 4: 7753, 5: 0, 6: 1617, 7: 0, 8: 4952, 9: 1, 10: 391, 11: 0, 12: 436, 13: 144, 14: 140, 15: 0, 16: 1313, 17: 0, 18: 105, 19: 56, 20: 134, 21: 44, 22: 46, 23: 1, 24: 138, 25: 0, 26: 47, 27: 17, 28: 62, 29: 14, 30: 21, 31: 0, 32: 342}</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{0: 0, 1: 2, 2: 1532, 3: 0, 4: 585, 5: 0, 6: 218, 7: 0, 8: 1217, 9: 0, 10: 59, 11: 0, 12: 32, 13: 24, 14: 30, 15: 0, 16: 205, 17: 0, 18: 14, 19: 4, 20: 9, 21: 6, 22: 7, 23: 0, 24: 6, 25: 0, 26: 2, 27: 0, 28: 1, 29: 4, 30: 2, 31: 0, 32: 50}</t>
         </is>
       </c>
     </row>
@@ -1279,9 +1885,9 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[   7  316   84 ...    0    0    0]
- [ 354 7268 1740 ...    0    0    0]
- [   8 1653 1220 ...    0    0    0]
+          <t>[[   3   49   43 ...    0    0    0]
+ [  33 6124 1664 ...    0    0    0]
+ [  17 1611 2072 ...    0    0    0]
  ...
  [   0    0    0 ...    0    0    0]
  [   0    0    0 ...    0    0    0]
@@ -1290,68 +1896,134 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[[   0    5    0 ...    0    0    0]
- [   1 7240    0 ...    0    0   10]
+          <t>[[   0    0    0 ...    0    0    0]
+ [   1 6573    0 ...    0    0    7]
  [   0    0    0 ...    0    0    0]
  ...
  [   0    0    0 ...    0    0    0]
  [   0    0    0 ...    0    0    0]
- [   0   15    0 ...    0    0    0]]</t>
+ [   0    5    0 ...    0    0    0]]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[[   7  257   97 ...    0    0    3]
- [ 318 6742 1232 ...    8    0   20]
- [  18 1182 1130 ...    4    0   15]
+          <t>[[   5   60   37 ...    0    0    2]
+ [  53 6438 1260 ...    8    0   31]
+ [  10 1201 1945 ...    4    0   29]
  ...
- [   0    7    5 ...    0    0    1]
- [   0    0    0 ...    0    0    0]
- [   3   25   18 ...    1    0   10]]</t>
+ [   0   12    6 ...    0    0    1]
+ [   0    0    0 ...    0    0    0]
+ [   1   53   28 ...    3    0   37]]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[[  17  316  113 ...    0    0    0]
- [ 381 6638 1296 ...    1    0    0]
- [  14 1299 1289 ...    1    0    0]
- ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]]</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[[   7  344   87 ...    0    0    0]
- [ 380 7297 1486 ...    1    0    0]
- [  21 1375 1624 ...    0    0    0]
+          <t>[[   6   66   34 ...    0    0    0]
+ [  66 5743 1524 ...    1    0    0]
+ [  15 1511 2020 ...    0    0    0]
  ...
  [   0    1    0 ...    0    0    0]
  [   0    0    0 ...    0    0    0]
- [   0    1    4 ...    0    0    2]]</t>
+ [   1    1    1 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[[   4   91   61 ...    0    0    0]
+ [  69 5052 1293 ...    0    0    1]
+ [  14 1296 2165 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    0    1 ...    0    0    0]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[[   0    3    0 ...    0    0    0]
- [   0 5623    0 ...    5    0   97]
+          <t>[[   0    1    0 ...    0    0    0]
+ [   0 6082    0 ...   10    0   92]
  [   0    0    0 ...    0    0    0]
  ...
- [   0    5    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0   92    0 ...    3    0   31]]</t>
+ [   0    8    0 ...    0    0    2]
+ [   0    0    0 ...    0    0    0]
+ [   2   98    0 ...    2    0   37]]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>[[   8   73   88 ...    0    0    0]
+ [  57 6392 1706 ...    0    0    1]
+ [  42 1631 2315 ...    0    0    5]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   2    2    2 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[[   0    1    0 ...    0    0    0]
+ [   0 5749    0 ...    0    0   16]
+ [   0    0    0 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0   14    0 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[  17   96   92 ...    0    0    3]
+ [  76 5990 1601 ...    5    0   35]
+ [  57 1628 2352 ...    4    0    6]
+ ...
+ [   0    9    1 ...    1    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   5   48   12 ...    1    0   22]]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[[   0   65   58 ...    0    0    0]
+ [  72 6007 1716 ...    0    0    0]
+ [  34 1742 2368 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    1    0 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[[   6   54   47 ...    0    0    0]
+ [  46 5820 1106 ...    0    0    2]
+ [  20 1106 2026 ...    0    0    3]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    3    1 ...    0    0    1]]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[[   0    0    0 ...    0    0    0]
+ [   0 6356    0 ...    4    0   61]
+ [   0    0    0 ...    0    0    0]
+ ...
+ [   0    7    0 ...    0    0    1]
+ [   0    0    0 ...    0    0    0]
+ [   0   88    0 ...    0    0    9]]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>[[  0   1   0 ...   0   0   0]
- [  0 441   0 ...   2   0   4]
+ [  1 735   0 ...   0   0  11]
  [  0   0   0 ...   0   0   0]
  ...
  [  0   1   0 ...   0   0   0]
  [  0   0   0 ...   0   0   0]
- [  0   9   0 ...   0   0   1]]</t>
+ [  0  14   0 ...   0   0   1]]</t>
         </is>
       </c>
     </row>

--- a/0_data/9_evaluation/comparison_model_evaluation.xlsx
+++ b/0_data/9_evaluation/comparison_model_evaluation.xlsx
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.34</v>
+        <v>71.91</v>
       </c>
       <c r="C2" t="n">
-        <v>75.18000000000001</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>75.28</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>70.22</v>
       </c>
       <c r="F2" t="n">
-        <v>14.97</v>
+        <v>15.24</v>
       </c>
       <c r="G2" t="n">
-        <v>15.03</v>
+        <v>15.98</v>
       </c>
       <c r="H2" t="n">
-        <v>76.3</v>
+        <v>71.81</v>
       </c>
       <c r="I2" t="n">
-        <v>75.66</v>
+        <v>71.94</v>
       </c>
       <c r="J2" t="n">
-        <v>75.58</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>75.7</v>
+        <v>71.06</v>
       </c>
       <c r="L2" t="n">
-        <v>16.11</v>
+        <v>15.64</v>
       </c>
       <c r="M2" t="n">
-        <v>14.98</v>
+        <v>15.15</v>
       </c>
       <c r="N2" t="n">
-        <v>15.82</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.03</v>
+        <v>14.16</v>
       </c>
       <c r="C3" t="n">
-        <v>11.87</v>
+        <v>13.87</v>
       </c>
       <c r="D3" t="n">
-        <v>11.87</v>
+        <v>14.21</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5</v>
+        <v>12.59</v>
       </c>
       <c r="F3" t="n">
-        <v>11.99</v>
+        <v>13.55</v>
       </c>
       <c r="G3" t="n">
-        <v>12.13</v>
+        <v>12.47</v>
       </c>
       <c r="H3" t="n">
-        <v>13.87</v>
+        <v>15.58</v>
       </c>
       <c r="I3" t="n">
-        <v>13.64</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>13.08</v>
+        <v>15.41</v>
       </c>
       <c r="K3" t="n">
-        <v>13.56</v>
+        <v>15.02</v>
       </c>
       <c r="L3" t="n">
-        <v>14.22</v>
+        <v>15.2</v>
       </c>
       <c r="M3" t="n">
-        <v>14.09</v>
+        <v>13.67</v>
       </c>
       <c r="N3" t="n">
-        <v>13.07</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="4">
@@ -599,43 +599,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.34</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="E4" t="n">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="F4" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="G4" t="n">
         <v>3.35</v>
       </c>
       <c r="H4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M4" t="n">
         <v>3.44</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.52</v>
-      </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="5">
@@ -645,43 +645,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.64</v>
+        <v>21.71</v>
       </c>
       <c r="C5" t="n">
-        <v>20.1</v>
+        <v>22.11</v>
       </c>
       <c r="D5" t="n">
-        <v>19.98</v>
+        <v>22.09</v>
       </c>
       <c r="E5" t="n">
-        <v>20.45</v>
+        <v>23.31</v>
       </c>
       <c r="F5" t="n">
-        <v>19.54</v>
+        <v>20.79</v>
       </c>
       <c r="G5" t="n">
-        <v>19.9</v>
+        <v>20.51</v>
       </c>
       <c r="H5" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="N5" t="n">
         <v>21.67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="M5" t="n">
-        <v>22.64</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20.33</v>
       </c>
     </row>
     <row r="6">
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.75</v>
+        <v>6.09</v>
       </c>
       <c r="C6" t="n">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="D6" t="n">
-        <v>5.53</v>
+        <v>5.85</v>
       </c>
       <c r="E6" t="n">
-        <v>5.75</v>
+        <v>5.95</v>
       </c>
       <c r="F6" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="G6" t="n">
-        <v>5.89</v>
+        <v>5.78</v>
       </c>
       <c r="H6" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="J6" t="n">
         <v>5.99</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.03</v>
-      </c>
       <c r="K6" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.08</v>
+        <v>5.85</v>
       </c>
       <c r="M6" t="n">
-        <v>6.38</v>
+        <v>6.12</v>
       </c>
       <c r="N6" t="n">
-        <v>6.57</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="7">
@@ -743,13 +743,13 @@
         <v>0.02</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
         <v>0.02</v>
@@ -764,7 +764,7 @@
         <v>0.02</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L7" t="n">
         <v>0.01</v>
@@ -783,43 +783,43 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M8" t="n">
         <v>2.33</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="N8" t="n">
         <v>2.34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.32</v>
       </c>
     </row>
     <row r="9">
@@ -830,9 +830,9 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[ 7714  2866 11185  4494  1259  2079    35  1298   275   365   189    17
-   220     2    26     9     5     6     0     1     1     0     0     0
-     0     0     0     1     0     1     2     0     0     0     0     0
+          <t>[ 8291  2533 11537  4290  1339  2001    63  1380   211   270   157    10
+   136     7    24    12     0     5     1     2     0     2     0     0
+     0     0     0     0     0     0     0     0     1     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -845,10 +845,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[ 6795  1928 10427  4594   955  1832    21  1078   245   294   114     9
-   141     1    22     6     3     1     0     2     0     2     2     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
+          <t>[ 7356  2330 10162  3894   887  1625    72   972   158   223   147    22
+   141     4    32     9     6     6     1     9     2     2     1     0
+     1     0     0     1     0     2     0     3     0     3     4     1
+     1     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -860,9 +860,9 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[ 7870  2340 11533  4689  1102  2077    23  1285   267   349   134    15
-   214     4    26    12     3     2     0     4     0     1     1     0
-     0     0     0     1     0     0     0     0     0     0     0     0
+          <t>[ 8074  2179 11024  4653  1212  2359    66  1395   248   341   240    23
+   184     8    40    17     6    13     0     8     0     2     1     0
+     1     0     0     0     0     1     2     3     0     3     0     1
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -875,10 +875,10 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 7553  2277 11947  4745  1207  2043    33  1302   248   352   133    16
-   177     7    12    12     2     6     0     3     0     0     1     0
-     0     0     0     0     1     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
+          <t>[ 8020  2550 11681  4497  1110  2004    19  1279   270   326   120    21
+   205     4    29     8     3     2     1     3     1     2     0     0
+     5     0     2     0     0     1     0     1     0     1     0     1
+     4     1     1     3     0     4     0     1     1     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -890,26 +890,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[ 7565  2424 11722  4610  1267  2063    16  1245   298   366   181    21
-   213     4    17     9     4     7     0     1     0     0     0     0
-     0     0     0     1     0     0     0     0     0     0     0     0]</t>
+          <t>[ 8642  2103 11302  4379  1086  2224    47  1263   205   314   222    24
+   174     4    36    12     3     5     1     6     0     3     2     0
+     0     0     2     0     0     0     0     0     0     0     1     0]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[ 7246  1851 10017  4248   955  1617    20  1036   205   277   112    12
-   150     3    20    12     1     0     0     1     0     0     0     0
-     0     0     1     0     1     0     0     0     0     0     0     0]</t>
+          <t>[7093 2402 9874 4045  961 1630   19 1032  228  280  102   11  151    3
+   14    6    1    2    0    0    1    1    0    0    1    0    0    1
+    0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[ 7759  2626 10712  4527  1468  2405    83  1382   280   394   182    26
-   186     3    34    12     8    10     1     4     0     0     0     0
-     2     1     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
+          <t>[ 8178  1798 10256  4744  1883  2997   101  1357   217   296   157    13
+   104     4    34    14     5     7     0     3     3     0     1     0
+     1     1     3     1     2     5     2     6     2    13     6     1
+     8     4     5     2     1     2     0     1     0     0     0     0
+     0     0     0     0     0     0     0     2     0     0     0     0
+     0     1     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -919,10 +919,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[6990 1928 9180 4103 1238 2316   53 1277  205  342  159   16  162    0
-   31   16    3    9    1    6    0    2    0    0    0    0    0    0
-    0    1    0    0    0    0    0    0    0    0    0    0    0    0
-    0    0    0    1    0    1    0    0    0    0    0    0    0    0
+          <t>[7293 1285 8475 4064 1811 3079  104 1144  137  232  123   17   53    3
+   13    4    2    3    1    4    0    2    0    0    0    0    3    0
+    0    0    0    4    0    1    0    0    0    0    1    0    1    1
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0    0    0    0    0    0    0
@@ -933,12 +933,26 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[ 7854  2019 10214  4663  1525  2899    51  1613   252   398   294    39
-   212     4    40    21     8    10     0     7     0     0     0     0
-     1     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     1     0     0     0     1     0     0     0     0     0     0     0
+          <t>[8286 1634 9155 4570 2134 3595  118 1566  208  378  188   22  133    5
+   44   10    4   13    4    3    1    1    1    1    2    0    1    2
+    0    1    0    0    1    0    0    0    2    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[ 7855  2441 10902  4439  1382  2491    69  1325   249   369   260    24
+   208    10    31     8     4     3     0     4     1     0     1     0
+     1     1     4     0     2     0     1     1     0     5     0     7
+     2     2     8     4     2     0     5     3     5     4     2     2
+     2     0     1     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
@@ -946,39 +960,24 @@
      0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[ 7966  2239 10914  4678  1368  2517    64  1345   251   362   224    13
-   201     5    27    10     5     4     0     3     1     0     0     1
-     2     0     0     0     0     1     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0]</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[ 7776  2488 10778  4663  1239  2510    92  1344   251   359   206    35
-   244     7    33    15     5    13     1    10     2     1     3     2
-     7     1     9     2     3     0     0     1     0     0     0     0]</t>
+          <t>[8247 2130 9575 4716 1826 2979  120 1353  244  317  206   41  173    9
+   49   26   11   12    1    6    1    1    6    0    1    1    3    2
+    1    3    0    0    0    0    0    0]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[7082 2159 9593 4061 1201 2211   44 1202  238  308  154   10  155   12
-   41    9    5   10    1    2    0    3    2    0    3    1    2    0
-    1    0    1    1    0    0    0    0]</t>
+          <t>[6919 1947 9463 3967 1231 2018   39 1119  188  272  127   13  136    7
+   38    7    4    3    2    1    1    0    0    0    2    0    0    1
+    0    2    0    1    0    0    0    0]</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>[ 869  502 1358  508  202  265   12  156   36   35   23    0   18    1
-    5    2    0    3    0    1    0    0    0    0    0    0    0    0
+          <t>[ 928  413 1396  555  165  245    8  177   27   43   28    3   20    0
+   12    0    2    1    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
@@ -991,67 +990,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[6124   96 5294   28 5865 1563  133 5606  131 4999   36 2275]</t>
+          <t>[2721 2462 2699 2476 3041 2385 3210 3017 2444 2555 2345 3017]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[5536   36 4806  173 5425  791   44 4830   42 5105   47 1737]</t>
+          <t>[2296 1831 2610 2075 2568 1997 2004 3373 1985 2761 1985 2692]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[5942   26 5442   44 6073 1056  122 5233   73 5865   45 2131]</t>
+          <t>[2573 2533 2648 2839 2639 2306 2630 2867 2264 2856 2723 3326]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[6118  132 5989   93 6074 1070   87 4821  196 5449  164 1984]</t>
+          <t>[6163   44 5503   44 6281 1398   65 5078  116 5372  100 2117]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[5666   23 5478   23 6380 1334  103 5370   51 5503   38 2165]</t>
+          <t>[3228 2124 3172 2274 2393 2544 2546 3421 2225 2768 2689 2776]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[5617   82 4805  101 5355  874   33 4408  103 4799   84 1624]</t>
+          <t>[5289   14 4746   32 5601 1150   31 4462   71 4719   46 1797]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[5978   82 5339   77 6351 1324  241 5191   89 5369   41 2123]</t>
+          <t>[2824 2333 2749 2830 3042 2961 2188 3258 2087 2923 2517 2629]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[5179   44 4990   32 5456 1138   82 4410   91 4875   27 1816]</t>
+          <t>[2737 2446 2112 2826 1875 2772 1834 2710 1997 1957 2784 1910]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[5936   22 5535   18 6348 1240  103 5245   38 5631   34 2076]</t>
+          <t>[2922 2409 3015 2741 2668 2434 2693 2939 2182 2733 2762 2685]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[6081   87 5384   49 5854  946  144 5152  119 6053   52 2380]</t>
+          <t>[5538  170 5324  141 6162 1465  187 5316  212 5620   89 2016]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[5542  236 5430  203 6119 1412  380 4638  237 5684  134 2185]</t>
+          <t>[2862 2307 2797 2412 2773 2713 2213 3276 2472 3049 2521 2765]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[5269   58 4913   77 5452 1210   69 4691   97 4890   50 1836]</t>
+          <t>[5412   49 4681   37 5191  983   54 4613   61 4801   32 1694]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>[864   4 644   3 754 243   4 558   5 591   4 337]</t>
+          <t>[800   3 637   5 735 198   2 644  14 665   6 329]</t>
         </is>
       </c>
     </row>
@@ -1063,67 +1062,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'C': 6124, 'C#': 96, 'D': 5294, 'D#': 28, 'E': 5865, 'F': 1563, 'F#': 133, 'G': 5606, 'G#': 131, 'A': 4999, 'A#': 36, 'B': 2275}</t>
+          <t>{'C': 2721, 'C#': 2462, 'D': 2699, 'D#': 2476, 'E': 3041, 'F': 2385, 'F#': 3210, 'G': 3017, 'G#': 2444, 'A': 2555, 'A#': 2345, 'B': 3017}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'C': 5536, 'C#': 36, 'D': 4806, 'D#': 173, 'E': 5425, 'F': 791, 'F#': 44, 'G': 4830, 'G#': 42, 'A': 5105, 'A#': 47, 'B': 1737}</t>
+          <t>{'C': 2296, 'C#': 1831, 'D': 2610, 'D#': 2075, 'E': 2568, 'F': 1997, 'F#': 2004, 'G': 3373, 'G#': 1985, 'A': 2761, 'A#': 1985, 'B': 2692}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 5942, 'C#': 26, 'D': 5442, 'D#': 44, 'E': 6073, 'F': 1056, 'F#': 122, 'G': 5233, 'G#': 73, 'A': 5865, 'A#': 45, 'B': 2131}</t>
+          <t>{'C': 2573, 'C#': 2533, 'D': 2648, 'D#': 2839, 'E': 2639, 'F': 2306, 'F#': 2630, 'G': 2867, 'G#': 2264, 'A': 2856, 'A#': 2723, 'B': 3326}</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 6118, 'C#': 132, 'D': 5989, 'D#': 93, 'E': 6074, 'F': 1070, 'F#': 87, 'G': 4821, 'G#': 196, 'A': 5449, 'A#': 164, 'B': 1984}</t>
+          <t>{'C': 6163, 'C#': 44, 'D': 5503, 'D#': 44, 'E': 6281, 'F': 1398, 'F#': 65, 'G': 5078, 'G#': 116, 'A': 5372, 'A#': 100, 'B': 2117}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'C': 5666, 'C#': 23, 'D': 5478, 'D#': 23, 'E': 6380, 'F': 1334, 'F#': 103, 'G': 5370, 'G#': 51, 'A': 5503, 'A#': 38, 'B': 2165}</t>
+          <t>{'C': 3228, 'C#': 2124, 'D': 3172, 'D#': 2274, 'E': 2393, 'F': 2544, 'F#': 2546, 'G': 3421, 'G#': 2225, 'A': 2768, 'A#': 2689, 'B': 2776}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'C': 5617, 'C#': 82, 'D': 4805, 'D#': 101, 'E': 5355, 'F': 874, 'F#': 33, 'G': 4408, 'G#': 103, 'A': 4799, 'A#': 84, 'B': 1624}</t>
+          <t>{'C': 5289, 'C#': 14, 'D': 4746, 'D#': 32, 'E': 5601, 'F': 1150, 'F#': 31, 'G': 4462, 'G#': 71, 'A': 4719, 'A#': 46, 'B': 1797}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'C': 5978, 'C#': 82, 'D': 5339, 'D#': 77, 'E': 6351, 'F': 1324, 'F#': 241, 'G': 5191, 'G#': 89, 'A': 5369, 'A#': 41, 'B': 2123}</t>
+          <t>{'C': 2824, 'C#': 2333, 'D': 2749, 'D#': 2830, 'E': 3042, 'F': 2961, 'F#': 2188, 'G': 3258, 'G#': 2087, 'A': 2923, 'A#': 2517, 'B': 2629}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{'C': 5179, 'C#': 44, 'D': 4990, 'D#': 32, 'E': 5456, 'F': 1138, 'F#': 82, 'G': 4410, 'G#': 91, 'A': 4875, 'A#': 27, 'B': 1816}</t>
+          <t>{'C': 2737, 'C#': 2446, 'D': 2112, 'D#': 2826, 'E': 1875, 'F': 2772, 'F#': 1834, 'G': 2710, 'G#': 1997, 'A': 1957, 'A#': 2784, 'B': 1910}</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'C': 5936, 'C#': 22, 'D': 5535, 'D#': 18, 'E': 6348, 'F': 1240, 'F#': 103, 'G': 5245, 'G#': 38, 'A': 5631, 'A#': 34, 'B': 2076}</t>
+          <t>{'C': 2922, 'C#': 2409, 'D': 3015, 'D#': 2741, 'E': 2668, 'F': 2434, 'F#': 2693, 'G': 2939, 'G#': 2182, 'A': 2733, 'A#': 2762, 'B': 2685}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{'C': 6081, 'C#': 87, 'D': 5384, 'D#': 49, 'E': 5854, 'F': 946, 'F#': 144, 'G': 5152, 'G#': 119, 'A': 6053, 'A#': 52, 'B': 2380}</t>
+          <t>{'C': 5538, 'C#': 170, 'D': 5324, 'D#': 141, 'E': 6162, 'F': 1465, 'F#': 187, 'G': 5316, 'G#': 212, 'A': 5620, 'A#': 89, 'B': 2016}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'C': 5542, 'C#': 236, 'D': 5430, 'D#': 203, 'E': 6119, 'F': 1412, 'F#': 380, 'G': 4638, 'G#': 237, 'A': 5684, 'A#': 134, 'B': 2185}</t>
+          <t>{'C': 2862, 'C#': 2307, 'D': 2797, 'D#': 2412, 'E': 2773, 'F': 2713, 'F#': 2213, 'G': 3276, 'G#': 2472, 'A': 3049, 'A#': 2521, 'B': 2765}</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{'C': 5269, 'C#': 58, 'D': 4913, 'D#': 77, 'E': 5452, 'F': 1210, 'F#': 69, 'G': 4691, 'G#': 97, 'A': 4890, 'A#': 50, 'B': 1836}</t>
+          <t>{'C': 5412, 'C#': 49, 'D': 4681, 'D#': 37, 'E': 5191, 'F': 983, 'F#': 54, 'G': 4613, 'G#': 61, 'A': 4801, 'A#': 32, 'B': 1694}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'C': 864, 'C#': 4, 'D': 644, 'D#': 3, 'E': 754, 'F': 243, 'F#': 4, 'G': 558, 'G#': 5, 'A': 591, 'A#': 4, 'B': 337}</t>
+          <t>{'C': 800, 'C#': 3, 'D': 637, 'D#': 5, 'E': 735, 'F': 198, 'F#': 2, 'G': 644, 'G#': 14, 'A': 665, 'A#': 6, 'B': 329}</t>
         </is>
       </c>
     </row>
@@ -1134,43 +1133,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.24</v>
+        <v>129.37</v>
       </c>
       <c r="C12" t="n">
-        <v>3.42</v>
+        <v>98.8</v>
       </c>
       <c r="D12" t="n">
-        <v>3.1</v>
+        <v>129.89</v>
       </c>
       <c r="E12" t="n">
-        <v>6.72</v>
+        <v>3.69</v>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>118.58</v>
       </c>
       <c r="G12" t="n">
-        <v>4.03</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>5.3</v>
+        <v>119.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>118.87</v>
       </c>
       <c r="J12" t="n">
-        <v>2.15</v>
+        <v>127.87</v>
       </c>
       <c r="K12" t="n">
-        <v>4.51</v>
+        <v>7.99</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>119.25</v>
       </c>
       <c r="M12" t="n">
-        <v>3.51</v>
+        <v>2.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1181,210 +1180,210 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[1605   14 1511    6  498   91    3  496    5  996    5  876]
- [   7   36   16    6    3    4    3    0    0    6    4   10]
- [1610   12 1161    2 1620   95   12  330    1  241    2  191]
- [   5    4    0    5    1    5    0    1    2    0    3    1]
- [ 549    5 1805    2 1317  477   43 1112    4  412    1  122]
- [  52    3  100    5  561  468    2  303    8   44    2    8]
- [   2    0   20    0   51    1   19   23    4    7    0    6]
- [ 469    2  333    0 1187  334   27 1657    6 1456    4  113]
- [   4    4    3    0    8    7    0    6   68   18    5    6]
- [ 989    7  223    1  480   61   14 1458   23 1190    3  535]
- [   6    6    2    0    2    4    1    3    5    2    4    1]
- [ 802    3  116    1  103   14    9  194    5  616    3  404]]</t>
+          <t>[[762  58 471 151  68  92   7 183  53 168 481 216]
+ [ 74 608  89 410 215  38 121   7 157  55 160 521]
+ [549 111 630  70 503 195  79 162   8 126  52 213]
+ [184 446  92 646 106 391 208  62 130   3 117  80]
+ [ 76 200 583 140 733  99 575 229  74 157   5 157]
+ [105  45 216 453 123 644  62 474 116  34 105   3]
+ [  4 172 116 234 643  75 937 160 456 178  48 181]
+ [182   3 129  68 270 524 171 832  76 476 182  92]
+ [ 44 146   6 116  67 132 521  91 613  84 365 243]
+ [133  52 127   5 171  45 251 536 106 637  44 442]
+ [416 120  56 108   4 131  81 176 428  64 639 116]
+ [184 492 177  67 123   9 190  99 223 562 139 746]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[1427    3 1419   14  470   51    1  361    0 1122    9  646]
- [   2    5    6   12    2    1    0    0    0    2    6    0]
- [1601    8  988   11 1500   45    6  311    1  177    3  132]
- [   4   15   15  103    4   12    0    3    4    2    8    2]
- [ 413    1 1714    8 1318  295   19 1102    3  457    1   80]
- [  24    0   43   16  331  153    1  174    6   36    0    2]
- [   0    0    2    0   24    0    7    4    1    4    1    1]
- [ 325    2  310    0 1182  187    5 1274    3 1446    1   80]
- [   2    0    0    1    3    9    0    3    7    9    5    2]
- [1145    2  233    2  492   24    5 1421    8 1303    3  448]
- [   5    0    4    6    5    7    0    1    9    1    8    1]
- [ 569    0   70    0   65    5    0  146    0  528    2  343]]</t>
+          <t>[[ 588   58  372  132   57   82   10  132   48  186  387  233]
+ [ 107  568   34  408  103   23   66    4   86   17  147  261]
+ [ 448   54  656   96  595  104   51  168    5  137   30  258]
+ [ 158  443  111  521   73  337  165   58   71    6   83   41]
+ [  55   75  669   85  624   76  345  297    9  167    7  148]
+ [  73   42  145  344   84  477   65  441  205   23   85    9]
+ [   7   81   62  166  384   89  525  125  293  130   33  100]
+ [ 131   10  117   73  350  517  149 1027  154  566  173   93]
+ [  50   90    0  105   26  172  324  167  508   34  361  144]
+ [ 168   25  168    6  138   30  159  685   49  738   50  535]
+ [ 320  149   43   89    6   82   33  174  407   67  506  103]
+ [ 183  230  228   45  115    3  103   86  144  674  111  761]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[1534    1 1598    3  465   46    1  403    4 1057   12  802]
- [   3    5    5    5    1    1    0    0    0    3    3    0]
- [1612    5 1256    4 1739   53   11  314    1  267    3  158]
- [   5    5    7   11    1    8    0    0    0    1    2    1]
- [ 522    2 1856    5 1429  383   37 1170    3  534    1  112]
- [  31    0   54   10  411  285    1  203    8   45    1    4]
- [   1    0   10    0   43    0   31   12    1   19    0    4]
- [ 368    1  325    1 1251  217   21 1418    4 1528    3   82]
- [   9    1    2    0    5    5    0    4   30    9    4    3]
- [1164    1  256    1  599   44   15 1524   12 1673    2  560]
- [  16    2    0    4    0    1    0    2    5    4   10    1]
- [ 658    3   69    0   95   10    5  162    5  708    4  402]]</t>
+          <t>[[632  57 397 224  37 134   8 167  61 232 491 123]
+ [ 41 659  78 487 220  37 138   7 138  37 197 490]
+ [439 112 635  91 412 147  86 161   5 183  51 321]
+ [232 536 116 787 162 367 176  45 146   7 173  82]
+ [ 46 200 501 176 635  50 453 182  62 129   6 189]
+ [142  47 187 420  74 587  55 403 200  41 138   7]
+ [  6 149 112 221 529  60 673 111 323 199  61 175]
+ [198   6 114  41 184 466 144 840  51 516 188 108]
+ [ 45 139   4 159  57 215 369  56 515  56 430 208]
+ [194  54 146   6 151  64 230 592  56 642  94 623]
+ [474 143  52 149   3 170  71 196 474 112 768 105]
+ [118 424 296  69 168   3 223 100 224 689 113 886]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[1541    5 1712    9  495   70    2  367    3 1112   14  772]
- [   4   37   11   23    3   11    1    1    9    5   22    4]
- [1782    8 1440    7 1894   70    7  330    1  257    6  168]
- [   6   27   11   21    1   12    0    2    6    1    4    1]
- [ 546    3 2066    0 1346  351   22 1134    6  494    3   95]
- [  45    4   61   18  392  291    6  168   27   31   10    8]
- [   1    3    7    1   29    4   15    7    4    9    0    6]
- [ 353    0  333    1 1201  186   27 1129    4 1477    2   90]
- [   8   17    2    4    7   23    1    1   74   10   41    6]
- [1139    4  260    1  593   29    4 1479    9 1432    7  476]
- [  12   18    5    4    4   12    0    2   44    6   52    5]
- [ 649    6   80    4   79    9    2  186    9  596    3  352]]</t>
+          <t>[[1686    1 1566    2  529   68    0  430    2 1083    3  779]
+ [   3    6    6    6    5    1    2    1    7    0    6    1]
+ [1760    3 1259    0 1682   82    4  281    0  226    0  196]
+ [   2    5    4    6    1    7    1    1    3    1   12    1]
+ [ 488    4 1995    4 1644  491   16 1024    7  458    1  130]
+ [  45    5   68   11  521  440   11  240    5   37    9    1]
+ [   2    2    2    0   20    7    8    6    2   12    0    3]
+ [ 410    1  299    0 1180  229    8 1366    8 1474    3   76]
+ [   3    4    1    7    0   10    3    6   46   10   22    4]
+ [1049    1  215    2  572   43    5 1525   11 1368    0  559]
+ [   2   11    0    6    2   10    1    0   22    2   42    1]
+ [ 692    1   82    0   90    8    6  184    3  682    2  363]]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[1330    2 1583    0  510   63    1  373    5 1042    4  740]
- [   1    2    8    3    3    0    0    1    0    1    1    2]
- [1675    7 1221    2 1733   76   10  309    2  259    3  164]
- [   0    1    3    4    1    8    0    1    1    0    2    1]
- [ 602    3 1894    2 1572  469   29 1167    3  485    0  132]
- [  42    0   59    8  518  368    7  265    3   55    2    2]
- [   1    0    6    0   34    3   19   13    1   17    0    7]
- [ 368    4  350    1 1309  286   24 1424    5 1471    1  112]
- [   0    1    2    1    5    4    2    5   11   13    4    3]
- [1019    0  252    0  565   54    9 1583   11 1399    4  588]
- [   2    1    3    2    2    2    0    5    5    0   16    0]
- [ 610    2   96    0   98    1    2  197    4  737    1  412]]</t>
+          <t>[[ 980   89  576  164   62  137    4  214   52  252  500  191]
+ [  83  599   67  347  125   26  111    4  120   44  153  436]
+ [ 711   69  883  112  491  168   60  234    1  135   74  223]
+ [ 171  352  129  573   96  373  229   49  133    6   99   54]
+ [  52  110  594  104  532   54  339  242   61  150    6  142]
+ [ 138   33  242  404   67  701   37  520  189   49  155    4]
+ [   4  160   70  229  390   48  744  109  422  150   48  163]
+ [ 179    6  153   42  285  643  128 1028   27  626  226   70]
+ [  30  108    2  127   41  191  511   30  547   17  437  179]
+ [ 223   35  164    8  183   66  158  662   29  702   99  429]
+ [ 487  146   67  106    2  129   69  231  431  149  753  108]
+ [ 162  409  218   51  112    1  146   89  204  475  127  774]]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[[1676    2 1496   10  398   40    0  337    3 1033   12  587]
- [   5   22   15    5    6   12    1    1    6    3    3    2]
- [1513   18 1149    6 1481   43    2  257    0  192    1  123]
- [   5   13    4   39   11   12    1    0    7    1    7    1]
- [ 434    7 1625   16 1478  283    5 1020    2  385    2   84]
- [  22    7   37   10  356  265    2  126   13   29    2    1]
- [   0    2    0    1   10    3    6    2    2    3    2    1]
- [ 346    0  252    0 1058  155    7 1182    2 1324    5   66]
- [   5    4    0    6    4    8    0    1   34   18   13    5]
- [1096    4  172    1  457   34    7 1316   19 1222    8  451]
- [   8    2    4    7    5    8    2    3   13    9   23    0]
- [ 486    1   46    0   59    9    0  149    2  557    6  300]]</t>
+          <t>[[1496    0 1294    4  424   56    1  306    1  939   11  743]
+ [   1    1    5    0    1    2    0    1    0    1    1    1]
+ [1451    5 1140    6 1525   75    2  223    0  175    2  124]
+ [   3    1    8    3    5    3    0    1    2    1    4    0]
+ [ 418    1 1702    8 1442  452   11 1023    2  438    2   82]
+ [  26    1   65    7  494  288    0  210    6   42    1    2]
+ [   1    0    2    0   14    3    1    2    2    5    0    0]
+ [ 294    0  269    2 1071  215    6 1256    1 1242    2   86]
+ [   1    2    1    1    0   10    5    3   29    9    5    5]
+ [ 930    0  201    0  512   39    4 1258   22 1283    1  455]
+ [  11    1    2    1    7    0    0    4    2    1   13    3]
+ [ 634    2   55    0   70    3    1  163    4  563    4  293]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[[1639   11 1398    4  547   96    6  454   10 1001    3  797]
- [   5   12   12    8    8    3    7    7    5    8    3    3]
- [1498   18 1223    5 1610  105   23  338    5  306    7  185]
- [   6    8    8    7   11   10   13    5    3    3    1    1]
- [ 611    7 1786   21 1648  441   52 1086    4  546    4  121]
- [  66    3  110   12  512  291    5  222   19   69    4   10]
- [  14    4   31    5   45   10   59   42    2   23    2    3]
- [ 459    4  390    4 1195  265   41 1288   10 1397    1  117]
- [   5    0    5    5    8   19    2   10   13    7    7    7]
- [ 993    7  261    3  632   61   27 1495   11 1377    2  485]
- [   2    5    5    2    5    3    2    2    4    6    3    2]
- [ 665    3  106    1   91   18    4  222    3  611    4  387]]</t>
+          <t>[[702  44 451 187 104 173  10 232  87 299 423 106]
+ [ 53 584  34 417 211  73 133  11 141  92 192 386]
+ [553  32 648  49 442 246  93 226   9 196  56 191]
+ [189 440  66 724 210 456 206  84 158   6 167 116]
+ [102 201 501 199 818  57 335 281 116 210  11 199]
+ [187  87 267 471  69 849  68 497 158  86 206  10]
+ [ 10 179  81 236 415  70 497  55 268 164  62 142]
+ [212   4 230  83 278 582  77 884  53 512 210 117]
+ [ 52 136   2 150  98 167 377  68 478  42 318 195]
+ [254  87 230   5 203  87 191 573  65 736  57 429]
+ [398 166  58 182  16 187  63 225 361  80 706  68]
+ [ 99 367 170 116 173   9 128 113 186 490 101 665]]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[[1342    3 1214    2  478   83    6  433   10  997    3  592]
- [   4    8    4    4    3    4    1    3    9    1    1    2]
- [1336    5 1240    3 1473  110    6  332    5  305    4  151]
- [   2    3    3    4    4    3    2    3    5    0    2    0]
- [ 503    5 1655    5 1352  350   23  916    1  493    3  136]
- [  66    3   99    5  417  287    4  183    6   48    1   11]
- [   5    3    5    1   26    5   12    8    2   10    1    3]
- [ 414    2  348    2 1013  215   10 1132    5 1135    0  118]
- [   8    7    5    3    5   14    5    3   16   12    4    6]
- [ 992    0  304    1  537   51   10 1178   12 1368    0  407]
- [   1    2    2    1    3    3    0    2    7    1    4    1]
- [ 490    3  107    1  117   10    3  192   13  483    4  387]]</t>
+          <t>[[758  43 393 215  90 210  10 226  95 179 453  58]
+ [ 44 738  35 457 148 117 143   7 176  61 224 288]
+ [449  37 470  64 264 192  69 216  13 119 100 111]
+ [217 479  86 810  74 479 167 103 151   7 183  60]
+ [ 78 139 316  76 433  44 254 165  60 161   8 134]
+ [197 123 203 458  64 722  48 430 174  84 250   7]
+ [ 13 142  70 151 276  65 454  43 214 167  68 161]
+ [239   2 182  79 170 476  50 774  42 321 258 103]
+ [ 67 189   3 180  39 181 242  52 474  35 361 169]
+ [175  55 114  15 174  81 181 362  48 447  47 252]
+ [424 217 127 236  10 186  72 242 392  67 754  50]
+ [ 63 278 110  72 129  10 137  78 148 297  70 512]]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[[1560    1 1403    1  611  114    5  538    6 1041    3  644]
- [   2    3    2    4    0    1    2    1    1    2    3    1]
- [1556    1 1305    2 1564   98    7  383    3  419    1  177]
- [   2    2    3    0    3    3    1    1    0    0    2    0]
- [ 612    1 1747    1 1603  365   24 1164    5  633    1  168]
- [  75    2   91    3  427  299    2  242    5   73    3   13]
- [   3    4   12    1   21    2   17   15    0   19    2    6]
- [ 482    1  424    2 1233  249   25 1352    6 1312    1  140]
- [   3    2    2    0    3    5    1    6    2    8    3    3]
- [1083    3  401    2  723   81   13 1299    5 1501    1  507]
- [   3    1    0    2    0    0    2    3    5    3   12    3]
- [ 533    1  136    0  143   20    4  217    0  595    2  414]]</t>
+          <t>[[783  40 392 256 137 201  15 231  96 276 370 113]
+ [ 46 590  70 377 177  80 213   6 194  56 232 356]
+ [448  73 853  49 418 183 146 255   5 286  58 237]
+ [254 395  61 764  69 365 225  87 167   6 230 109]
+ [138 196 524  78 604  69 312 234  66 216  14 210]
+ [211  79 164 374  74 632  73 365 154  78 211  15]
+ [ 13 225 140 233 374  85 702  81 342 135 149 207]
+ [216   9 212  90 298 372  95 793  58 479 182 123]
+ [ 79 183   8 173  75 160 389  63 510  29 361 149]
+ [272  62 276   6 225  71 149 525  40 681  63 356]
+ [370 219  55 237  12 196 163 175 385  70 788  82]
+ [ 86 331 244  96 200  13 203 115 157 409  95 723]]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[[1586    8 1469    3  503   51    5  474    7 1162    3  785]
- [   6   24    7    4    5    2    6    3   13    2    7    6]
- [1558    3 1289    6 1572   81    7  329    2  340    5  185]
- [   0    5    7    9    9    4    3    0    5    4    3    0]
- [ 556    4 1739   12 1435  320   39 1034   10  547    3  132]
- [  48    5   67    5  357  225    3  155    8   58    2    9]
- [   3    5   18    0   41    2   27   11    9   18    1    7]
- [ 471    3  361    1 1146  171   17 1322    6 1485    2  152]
- [   7   11    9    5   12   11    5    3   28   14   10    4]
- [1160    4  304    0  597   47   24 1577   11 1714    2  596]
- [   5    6    3    4    2    7    2    0    7    2   11    2]
- [ 662    9  107    0  142   21    6  223   13  691    3  499]]</t>
+          <t>[[1400   10 1372    2  505   82    3  367    7 1013    5  753]
+ [   5   44   16   21    8   16   11    8   16    9   10    4]
+ [1486   11 1299   13 1606   98   11  330    7  312    2  135]
+ [   7   25    8   21    6   23    7    6   15    3   14    3]
+ [ 520    9 1780    9 1564  445   30 1090   10  554    4  134]
+ [  83   10   94   23  502  394   12  223   27   73    6   11]
+ [   4   12   12   13   32   12   36   10   25   18    8    3]
+ [ 468    6  328    7 1160  279   20 1439   15 1456    4  117]
+ [   9   23   12   13   16   19   22   12   47   17   17    5]
+ [ 962    4  290    1  638   74   21 1584   19 1488    4  521]
+ [   2   11    4   17    2    7    4    5   18    7    9    3]
+ [ 572    5  105    1   95   14    9  217    6  650    6  327]]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[[1392   15 1405    6  478   76   13  369    7 1023    5  740]
- [   6   50   15   50   14   15   24    6   24    5   17    4]
- [1432   13 1324    4 1651   83   18  338    5  345    2  196]
- [   6   44    5   43   10   29   18    4   21    4   18    0]
- [ 497   12 1798   11 1514  433   50 1057   13  558    5  156]
- [  52   19   90   30  474  391   35  214   23   53   17    7]
- [  10   18   18   15   54   39  104   27   46   33    9    4]
- [ 394    5  328    3 1149  230   30 1104   10 1270    4  100]
- [   7   27   10   18   13   19   41    7   48   19   26    1]
- [1103    6  317    4  608   64   24 1332   18 1619    1  569]
- [   5   22    0   18    9   17   11    1   13    7   30    0]
- [ 614    5  116    1  119   15   12  157    8  726    0  408]]</t>
+          <t>[[756  97 436 172  90 178  11 217 115 285 379 117]
+ [ 94 597  40 340 226  76 153  11 151  56 181 373]
+ [502  44 714  85 408 228  63 253   6 203  78 197]
+ [170 368 106 610 125 363 162 103 146   8 154  87]
+ [ 87 221 498 117 620  87 331 254 124 213  16 198]
+ [215  98 237 392 101 673  52 419 225  91 193   9]
+ [ 13 156  76 182 433  68 565  78 261 151  60 166]
+ [213  11 196 101 283 509 104 919  80 520 211 125]
+ [ 81 136  12 162  89 243 361  99 663  87 347 185]
+ [260  56 206  13 200 102 200 573  88 796 125 421]
+ [345 161  76 141   5 175  59 244 414 132 695  66]
+ [117 351 192  90 183   6 145 100 192 495  72 813]]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[[1353    1 1321    4  470   82    2  470    7  893    6  645]
- [   5    6    6    7    7    7    3    3    3    4    7    0]
- [1458    4 1254    4 1370   99    5  328    5  206    3  160]
- [   4   11    8   14    7   15    2    6    5    1    3    0]
- [ 483    4 1565    7 1371  387   11  992    4  504    3   99]
- [  43    9  101   18  457  320    8  178   11   43    8   10]
- [   2    3    6    2   17    3   10    8    4   10    2    2]
- [ 408    0  332    4 1050  224   13 1190   12 1319    1  123]
- [   6    6    5    8    6    6    4    8   24   13    7    4]
- [ 921    7  228    2  564   49    7 1281   10 1350    0  449]
- [   2    5    3    7    2    6    2    4    5    2    8    4]
- [ 568    2   80    0  106   11    2  196    7  518    2  340]]</t>
+          <t>[[1413    5 1375    3  480   67    6  462    2  933    3  640]
+ [   3   11    4    6    7    4    2    3    0    2    3    3]
+ [1449    8 1081    3 1410   70    5  264    2  238    6  131]
+ [   3    4    3    4    6    6    0    1    4    2    3    0]
+ [ 499    4 1554    9 1318  315   12  923    7  458    2   70]
+ [  52    3   73    5  373  249    5  154    9   49    0    6]
+ [   2    0    7    0   15    3    1    7    4   11    0    4]
+ [ 401    3  319    5  968  193    9 1336    6 1255    4   99]
+ [   3    3    2    1    6    8    2    7   10   10    4    4]
+ [1028    2  211    0  502   52    8 1239   11 1315    1  420]
+ [   2    4    1    1    1    4    0    4    5    2    6    2]
+ [ 535    2   48    0   74   12    4  191    1  506    0  313]]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>[[232   0 216   1  75  18   0  57   1 108   1 151]
- [  0   1   1   0   0   0   0   0   1   1   0   0]
- [215   1 121   0 197  17   0  35   1  24   0  30]
- [  0   1   2   0   0   0   0   0   0   0   0   0]
- [ 76   0 212   0 170  86   1 114   0  66   3  23]
- [ 19   0  17   2 105  58   0  35   0   4   0   3]
- [  0   0   2   0   0   0   1   0   0   1   0   0]
- [ 49   0  36   0 134  46   1 118   1 147   0  25]
- [  0   0   1   0   0   0   1   0   1   2   0   0]
- [115   1  25   0  62  15   0 159   0 145   0  65]
- [  0   0   3   0   1   0   0   0   0   0   0   0]
- [153   0   8   0  10   3   0  35   0  88   0  40]]</t>
+          <t>[[220   1 196   0  60  20   0  47   1 124   1 128]
+ [  0   1   1   0   0   0   0   0   1   0   0   0]
+ [192   0 142   1 191  11   0  33   1  36   0  29]
+ [  0   0   3   0   2   0   0   0   0   0   0   0]
+ [ 52   0 228   1 167  62   2 137   0  64   2  17]
+ [ 16   0  10   1  76  50   0  33   3   5   0   2]
+ [  0   0   1   0   1   0   0   0   0   0   0   0]
+ [ 55   0  32   1 149  38   0 153   2 184   1  26]
+ [  2   0   0   1   3   3   0   1   3   1   0   0]
+ [121   0  15   0  70  11   0 203   0 162   0  79]
+ [  0   0   0   0   1   1   0   0   2   0   2   0]
+ [137   1   9   0  15   2   0  32   1  84   0  48]]</t>
         </is>
       </c>
     </row>
@@ -1395,43 +1394,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>321.5</v>
+        <v>323.72</v>
       </c>
       <c r="C14" t="n">
-        <v>285.72</v>
+        <v>281.77</v>
       </c>
       <c r="D14" t="n">
-        <v>320.52</v>
+        <v>322.04</v>
       </c>
       <c r="E14" t="n">
-        <v>321.77</v>
+        <v>322.81</v>
       </c>
       <c r="F14" t="n">
-        <v>321.34</v>
+        <v>321.6</v>
       </c>
       <c r="G14" t="n">
-        <v>278.85</v>
+        <v>279.58</v>
       </c>
       <c r="H14" t="n">
-        <v>322.05</v>
+        <v>323.41</v>
       </c>
       <c r="I14" t="n">
-        <v>281.4</v>
+        <v>279.6</v>
       </c>
       <c r="J14" t="n">
-        <v>322.26</v>
+        <v>321.83</v>
       </c>
       <c r="K14" t="n">
-        <v>323.01</v>
+        <v>322.4</v>
       </c>
       <c r="L14" t="n">
-        <v>322</v>
+        <v>321.6</v>
       </c>
       <c r="M14" t="n">
-        <v>286.12</v>
+        <v>276.08</v>
       </c>
       <c r="N14" t="n">
-        <v>267.4</v>
+        <v>269.2</v>
       </c>
     </row>
     <row r="15">
@@ -1441,43 +1440,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.85</v>
+        <v>6.44</v>
       </c>
       <c r="C15" t="n">
-        <v>6.08</v>
+        <v>6.41</v>
       </c>
       <c r="D15" t="n">
-        <v>5.6</v>
+        <v>5.98</v>
       </c>
       <c r="E15" t="n">
-        <v>5.8</v>
+        <v>6.13</v>
       </c>
       <c r="F15" t="n">
-        <v>5.74</v>
+        <v>5.94</v>
       </c>
       <c r="G15" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="H15" t="n">
-        <v>5.93</v>
+        <v>6.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.91</v>
+        <v>6.56</v>
       </c>
       <c r="J15" t="n">
-        <v>6.04</v>
+        <v>5.83</v>
       </c>
       <c r="K15" t="n">
-        <v>6.25</v>
+        <v>5.99</v>
       </c>
       <c r="L15" t="n">
         <v>5.91</v>
       </c>
       <c r="M15" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -1487,43 +1486,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="C16" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="D16" t="n">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="E16" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.88</v>
       </c>
-      <c r="F16" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M16" t="n">
         <v>2.81</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.8</v>
-      </c>
       <c r="N16" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="17">
@@ -1534,92 +1533,92 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[ 1336  6447 14283  2533  3668   318  1014   230   650   110   309    82
-   324    58   219    45   203    28    78     6    75     4    30     6
-    14     7     4     2     7     0     1     0]</t>
+          <t>[  598  8387 15618  1700  3086   320   779   189   484    86   253    53
+   222    35   127    46   140    20    49     5    38     2    12     4
+    12     5    11     0     5     0     0     0]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[  789  7380 11082  2872  3174   339   726   271   614   146   202    97
-   268    62    91    56   187    28    20    10    30     6    13     3
-    14     2     7     5     8     1     0     0]</t>
+          <t>[  358  8983 10840  2335  2627   292   611   214   564   134   168    99
+   276    74   111    34   257    21    35     6    26     4     3     1
+    24     4     4     2     7     1     2     0]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[  858  6090 14968  2188  3668   337   897   271   766   156   310   108
-   369    83   229    78   364    44    64    11    57     5    11     3
-    18     4     5     1     7     2     3     2]</t>
+          <t>[  852  8082 14127  1822  3609   340   914   204   667   104   296    85
+   318    61   156    64   184    23    65    15    51    11    24     9
+    29     1    16     0    11     1     4     1]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[  916  5474 16006  2213  4049   323   870   187   633    98   344    64
-   286    53   201    29   237    12    60     8    25     5    10     1
-     8     0     6     0     4     0     2     0]</t>
+          <t>[  520  7344 16123  1700  3450   273   846   158   466    83   285    52
+   242    49   172    35   167    17    56    17    53    11    43     5
+    19     1     8     3     2     0     1     0]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[ 1041  6415 14526  2161  4164   314   938   256   690   116   281   109
-   313    53   180    52   187    26    69    17    68    12    27     6
-    24     2     7     3     6     2     2     0]</t>
+          <t>[  551  9090 12882  2390  3352   409   813   223   628   154   303   109
+   328    86   193    77   203    49    77    24    53    11    31    11
+    24     5     8     6     6     1     4     0]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[  686  7283 11026  2915  2824   392   541   261   579   125   151   103
-   268    66    97    49   291    35    23    16    43     7     7     4
-    12     3     3     4     4     0     0     0]</t>
+          <t>[  728  7180 10313  2937  3427   388   553   220   645    93   179    87
+   343    69    97    67   408    31    32    12    30     8     0     3
+    15     4     1     4     9     1     0     0]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[  982  7196 13905  2551  3855   375   883   280   740   111   266    67
-   251    57   174    50   213    22    73    13    28     1     8     1
-    16     2     6     1     4     0     3     0]</t>
+          <t>[  734  9081 14274  2114  2899   448   678   270   535   121   214    98
+   252    87   124    68   152    28    43    13    26     3     9     4
+     8     4     3     2     4     1     0     0]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[  858  6634 11628  3043  3034   275   589   216   509    94   171    68
-   256    64   116    39   209    35    66    12    72     4    17     3
-    32     1     4     3    11     2     2     0]</t>
+          <t>[ 788 9459 9427 2895 2713  383  489  220  468  106  154   80  203   52
+   89   59  183   37   27    7   23    2    6    2    7    0    1    1
+    1    0    1    0]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[ 1459  6602 14681  1752  3660   436  1014   257   717   119   357    86
-   349    50   199    56   172    30    51    10    43     7    15     2
-    15     4     6     2     2     0     0     0]</t>
+          <t>[  906  7756 13173  2443  3582   467  1063   315   801   130   345   121
+   330    67   178    65   202    23    38    17    33     6    14     5
+     8     1     4     1     6     3     1     1]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[ 1166  7517 15133  2141  2836   445   820   248   589   154   262    74
-   220    63   161    63   169    28    52    14    32    11    12     3
-     9     4     5     1     3     0     1     0]</t>
+          <t>[  351  8254 14280  2131  3691   461   855   244   630    99   267    80
+   252    75   156    49   178    28    55    13    27     4    10     2
+     7     2     2     1     2     0     0     0]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[ 1105  7312 14032  2260  3482   390   942   294   729   154   341   103
-   328    84   177    50   179    30    42     6    39     3    15     2
-    10     4     3     3     5     0     1     0]</t>
+          <t>[  773  8042 12853  2450  3714   504  1020   307   808   167   327   109
+   333    71   143    79   220    29    45    12    30     8    10     6
+     6     1     4     5     2     0     1     1]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[1007 7938 9804 3678 3091  387  493  260  533  113  152   82  263   68
-  140   60  275   46   44   10   46    6    3    3    6    2    0    0
-    3    1    0    0]</t>
+          <t>[ 1111  7046 10109  3251  3105   351   528   226   549   103   147    77
+   237    73   121    71   258    38    47     4    48     4     4     1
+    12     1     0     0     3     1     0     0]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>[ 187 1507  897  742  314   60   52   34   72    8   15    8   36   12
-    8   14   25    2    1    5    4    0    0    0    0    0    0    0
+          <t>[ 158 1534  971  736  286   55   53   32   84   14    6   12   21    7
+    9   14   25    4    1    2    3    0    0    0    0    0    0    0
     0    0    0    0]</t>
         </is>
       </c>
@@ -1631,43 +1630,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.89</v>
+        <v>4.17</v>
       </c>
       <c r="C18" t="n">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="D18" t="n">
-        <v>5.16</v>
+        <v>4.52</v>
       </c>
       <c r="E18" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
       <c r="F18" t="n">
-        <v>4.92</v>
+        <v>4.77</v>
       </c>
       <c r="G18" t="n">
-        <v>6.1</v>
+        <v>6.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.58</v>
+        <v>4.25</v>
       </c>
       <c r="I18" t="n">
-        <v>6.43</v>
+        <v>5.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="K18" t="n">
-        <v>4.42</v>
+        <v>4.65</v>
       </c>
       <c r="L18" t="n">
-        <v>4.91</v>
+        <v>4.65</v>
       </c>
       <c r="M18" t="n">
-        <v>5.81</v>
+        <v>6.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.25</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="19">
@@ -1678,29 +1677,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[  225 10911  5577  7186  1134  1578     0  2345     0   529   214   495
-   191   217     0   444     0   131    69   138    77    87     0   151
-     0    49    32    49    19    49     0    65     1    16     1    23
-     6     5     0    38     0     5     1    16     1     2     0    15
-     0     5     1     5     0     5     0     3     0     3     1     3
-     1     0     0     9]</t>
+          <t>[  606 11858  5177  8282  1386  1393     0  1605     0   303   215   358
+   106   109     0   309     0    74    37   101    38    41     0    96
+     0    41    13    34     5    12     0    37     0     9     1    19
+     1    10     0    18     0     1     1     8     1     0     0     3
+     0     2     0     4     0     1     0     1     0     1     0     1
+     0     0     0     5]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[    3 10863     0  7268     0  1554     1  5158     0   527     1   571
-     0   193     0  1379     0   108     0   116     0    82     0    98
-     0    39    13    42    16    15     0   218     0     5     2    19
-     2     7     0   147     0     2     3     9     5     1     0     3
-     0     0     0     3     0     0     0    34     0     1     0     2
-     0     0     0    35]</t>
+          <t>[   17 11394     0  6792     0  1559     0  4736     0   360     0   411
+     0   156     0  1599     0   111     0   121     0    61     0   122
+     0    52    25    44    16    27     0   220     0    27    11    20
+     2    10     0   127     0     3     2     4     1     1     0     6
+     0     1     3    10     1     2     0    43     0     1     0     0
+     1     0     0    49]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[  260 10715  4941  7605  1423  1363     0  2007     1   467   277   528
-   165   237     0   501     0   177    81   202    72   122     0   214
-     0    67    45    83    33    41     0   393     0     0     0     0
+          <t>[  783 11817  4686  7237  1469  1536     1  1808     0   451   234   410
+   176   193     0   422     0   135    66   141    65    55     0   148
+     0    54    23    45    20    28     0   163     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0]</t>
@@ -1708,98 +1707,97 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[  259 10534  5583  7702  1436  1938     0  2093     0   442   176   379
-   171   188     0   385     0   106    56   131    47    75     0   145
-     0    43    19    38    17    20     0    45     1    13     4    19
-     4     8     0    10     0     2     1     3     2     0     0     3
-     0     2     0     6     1     0     0     2     0     1     0     0
-     0     1     0    20]</t>
+          <t>[  741 12426  3827  8125  1053  1738     0  1799     0   426   178   443
+   145   153     1   349     0   111    43   133    48    58     0   133
+     0    34    18    52    20    28     0    38     0    15     6    17
+     5     2     0    20     0     2     5     6     2     2     0     7
+     0     1     3     3     0     2     0     8     0     1     0     1
+     0     0     0    15]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[ 412 9506 5368 8396 1217 1598    0 2614    0  404  234  508  162  189
-    0  492    0  127   64  134   46   74    0  152    0   50   26   59
-   17   35    0   83    1   17    8   18    4    4    0   24    0    3
-    2    9    0    0    0   10    0    1    1    7    0    1    0    7
-    0    0    1    2    0    0    0   12]</t>
+          <t>[  744 11830  4585  6689  1572  1622     2  1879     0   516   279   489
+   178   203     0   437     0   147    64   175    50   105     0   170
+     0    57    28    49    15    33     0    63     0    21    11    19
+     2     8     0    18     0     1     2     9     3     0     0    13
+     0     3     1     6     0     1     0     7     0     3     3     2
+     0     4     0    14]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[   13 10484     0  6283     0  1418     0  6290     0   495     0   336
-   119   171     0  1190     0    90    46    96    34    68     1   116
-     0    44    22    31    13    28     0   470     0     0     0     0
+          <t>[  21 9269    0 6713    0 1540    0 6582    0  479    1  478  144  211
+    0 1342    0  116   33  123   36   87    1  139    0   34   25   41
+   12   31    0  458    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[  826 12938  4813  7121  1159  1521     1  1639     0   329   199   337
+   159   174     0   322     0   103    43   101    47    57     0   127
+     0    42    20    35    17    23     0    46     0    10    12    23
+     2     5     0    13     0     2     3     4     2     3     0    10
+     0     1     0     1     0     1     0     1     0     0     1     2
+     0     0     0    11]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[    4 11950     0  6516     0  1185     0  5409     0   338     0   326
+     0   122     0  1133     0    88     0    89     0    45     0   101
+     0    32    12    50    18    15     0   202     0    11     4    24
+     3     1     0   136     0     2     3     6     1     1     0     8
+     0     1     1     2     0     0     0    45     0     0     0     1
+     0     0     0    48]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[  478 12020  4673  7232  1359  1651     1  1954     0   446   251   477
+   157   157     1   366     2    97    40   131    53    55     0   153
+     0    47    23    55    21    22     0   223     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0     0     0     0     0     0     0     0     0
      0     0     0     0]</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>[  422 11332  6425  6438  1497  1728     0  1611     0   461   274   331
-   186   161     0   312     0   114    58   108    44    87     0   154
-     0    46    27    53    26    42     0    78     0    27     8    30
-     6     7     0    16     0     7     8     7     3     3     0     3
-     0     3     3     2     0     1     0     2     0     0     2     0
-     1     0     0    17]</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[    7 10364     0  6915     0  1475     0  5969     0   375     0   337
-     0   145     0  1337     0    96     0   105     0    54     0   127
-     0    48    15    53    14    34     0   248     0    17     9    34
-     2     6     0   164     0     5     5    11     1     1     0    12
-     0     5     3     4     1     0     0    57     0     0     0     4
-     0     1     0    53]</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[  411 11039  5842  7449  1301  1622     0  1756     0   437   209   438
-   157   146     0   347     0   107    65   151    53    63     1   140
-     0    54    24    68    20    26     0   260     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0]</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[  263 11272  6167  8106  1238  1308     0  1303     0   430   220   418
-   151   181     0   340     0   129    70   104    50    69     0   123
-     0    46    34    41    21    27     0    71     1    31     4    16
-     0    12     0    10     1     3     3     2     2     1     0     5
-     0     2     1     0     0     1     0     1     0     0     0     0
-     0     0     0     4]</t>
+          <t>[  763 10855  4192  8607  1122  1827     0  2274     0   395   202   431
+   126   137     0   378     0   108    37   121    45    60     0   165
+     0    28    12    56    15    25     0    90     0    16     7    27
+     5     3     0    20     0     1     1    17     2     2     0    12
+     0     3     1     2     0     0     0     3     0     0     1     3
+     0     0     0    12]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[  301 10511  5054  8430  1206  1766     0  1875     0   437   226   462
-   168   180     0   366     0   115    54   147    67    97     0   176
-     0    55    36    54    27    40     0   112     0    23    10    39
-     7     9     0    37     2     8     4     9     5     6     0    14
-     0     5     2     7     0     0     0     3     0     1     1     0
-     0     2     0    21]</t>
+          <t>[  812 12047  5229  6131  1411  1894     1  1684     0   499   241   424
+   158   180     0   333     0   116    57   144    47    94     0   165
+     0    56    25    51    23    45     0    85     0    19    13    30
+     4    16     0    17     0     9     7    12     4     2     0    13
+     0     5     0     0     0     0     0     4     0     1     1     1
+     2     0     0    12]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[    5 10809     0  7753     0  1617     0  4952     1   391     0   436
-   144   140     0  1313     0   105    56   134    44    46     1   138
-     0    47    17    62    14    21     0   342     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0     0     0     0     0     0     0     0     0
-     0     0     0     0]</t>
+          <t>[  10 9197    0 7518    0 1349    0 6242    1  367    0  364  142  131
+    0 1213    0   94   41  122   62   50    0  121    2   48    9   54
+   21   27    0  401    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0    0    0    0    0    0    0
+    0    0    0    0    0    0    0    0]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>[   2 1532    0  585    0  218    0 1217    0   59    0   32   24   30
-    0  205    0   14    4    9    6    7    0    6    0    2    0    1
-    4    2    0   50    0    0    0    0    0    0    0    0    0    0
+          <t>[   1 1401    0  780    0  187    0 1251    0   59    0   45   18   28
+    0  161    0   15    6    9    3    7    0   12    0    5    2    2
+    1    1    0   42    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0    0    0    0    0    0    0
     0    0    0    0    0    0    0    0]</t>
         </is>
@@ -1813,67 +1811,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{0: 9, 1: 225, 2: 10911, 3: 5577, 4: 7186, 5: 1134, 6: 1578, 7: 0, 8: 2345, 9: 0, 10: 529, 11: 214, 12: 495, 13: 191, 14: 217, 15: 0, 16: 444, 17: 0, 18: 131, 19: 69, 20: 138, 21: 77, 22: 87, 23: 0, 24: 151, 25: 0, 26: 49, 27: 32, 28: 49, 29: 19, 30: 49, 31: 0, 32: 65, 33: 1, 34: 16, 35: 1, 36: 23, 37: 6, 38: 5, 39: 0, 40: 38, 41: 0, 42: 5, 43: 1, 44: 16, 45: 1, 46: 2, 47: 0, 48: 15, 49: 0, 50: 5, 51: 1, 52: 5, 53: 0, 54: 5, 55: 0, 56: 3, 57: 0, 58: 3, 59: 1, 60: 3, 61: 1, 62: 0, 63: 0, 64: 9}</t>
+          <t>{0: 5, 1: 606, 2: 11858, 3: 5177, 4: 8282, 5: 1386, 6: 1393, 7: 0, 8: 1605, 9: 0, 10: 303, 11: 215, 12: 358, 13: 106, 14: 109, 15: 0, 16: 309, 17: 0, 18: 74, 19: 37, 20: 101, 21: 38, 22: 41, 23: 0, 24: 96, 25: 0, 26: 41, 27: 13, 28: 34, 29: 5, 30: 12, 31: 0, 32: 37, 33: 0, 34: 9, 35: 1, 36: 19, 37: 1, 38: 10, 39: 0, 40: 18, 41: 0, 42: 1, 43: 1, 44: 8, 45: 1, 46: 0, 47: 0, 48: 3, 49: 0, 50: 2, 51: 0, 52: 4, 53: 0, 54: 1, 55: 0, 56: 1, 57: 0, 58: 1, 59: 0, 60: 1, 61: 0, 62: 0, 63: 0, 64: 5}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: 35, 1: 3, 2: 10863, 3: 0, 4: 7268, 5: 0, 6: 1554, 7: 1, 8: 5158, 9: 0, 10: 527, 11: 1, 12: 571, 13: 0, 14: 193, 15: 0, 16: 1379, 17: 0, 18: 108, 19: 0, 20: 116, 21: 0, 22: 82, 23: 0, 24: 98, 25: 0, 26: 39, 27: 13, 28: 42, 29: 16, 30: 15, 31: 0, 32: 218, 33: 0, 34: 5, 35: 2, 36: 19, 37: 2, 38: 7, 39: 0, 40: 147, 41: 0, 42: 2, 43: 3, 44: 9, 45: 5, 46: 1, 47: 0, 48: 3, 49: 0, 50: 0, 51: 0, 52: 3, 53: 0, 54: 0, 55: 0, 56: 34, 57: 0, 58: 1, 59: 0, 60: 2, 61: 0, 62: 0, 63: 0, 64: 35}</t>
+          <t>{0: 49, 1: 17, 2: 11394, 3: 0, 4: 6792, 5: 0, 6: 1559, 7: 0, 8: 4736, 9: 0, 10: 360, 11: 0, 12: 411, 13: 0, 14: 156, 15: 0, 16: 1599, 17: 0, 18: 111, 19: 0, 20: 121, 21: 0, 22: 61, 23: 0, 24: 122, 25: 0, 26: 52, 27: 25, 28: 44, 29: 16, 30: 27, 31: 0, 32: 220, 33: 0, 34: 27, 35: 11, 36: 20, 37: 2, 38: 10, 39: 0, 40: 127, 41: 0, 42: 3, 43: 2, 44: 4, 45: 1, 46: 1, 47: 0, 48: 6, 49: 0, 50: 1, 51: 3, 52: 10, 53: 1, 54: 2, 55: 0, 56: 43, 57: 0, 58: 1, 59: 0, 60: 0, 61: 1, 62: 0, 63: 0, 64: 49}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 260, 2: 10715, 3: 4941, 4: 7605, 5: 1423, 6: 1363, 7: 0, 8: 2007, 9: 1, 10: 467, 11: 277, 12: 528, 13: 165, 14: 237, 15: 0, 16: 501, 17: 0, 18: 177, 19: 81, 20: 202, 21: 72, 22: 122, 23: 0, 24: 214, 25: 0, 26: 67, 27: 45, 28: 83, 29: 33, 30: 41, 31: 0, 32: 393}</t>
+          <t>{0: 0, 1: 783, 2: 11817, 3: 4686, 4: 7237, 5: 1469, 6: 1536, 7: 1, 8: 1808, 9: 0, 10: 451, 11: 234, 12: 410, 13: 176, 14: 193, 15: 0, 16: 422, 17: 0, 18: 135, 19: 66, 20: 141, 21: 65, 22: 55, 23: 0, 24: 148, 25: 0, 26: 54, 27: 23, 28: 45, 29: 20, 30: 28, 31: 0, 32: 163}</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{0: 20, 1: 259, 2: 10534, 3: 5583, 4: 7702, 5: 1436, 6: 1938, 7: 0, 8: 2093, 9: 0, 10: 442, 11: 176, 12: 379, 13: 171, 14: 188, 15: 0, 16: 385, 17: 0, 18: 106, 19: 56, 20: 131, 21: 47, 22: 75, 23: 0, 24: 145, 25: 0, 26: 43, 27: 19, 28: 38, 29: 17, 30: 20, 31: 0, 32: 45, 33: 1, 34: 13, 35: 4, 36: 19, 37: 4, 38: 8, 39: 0, 40: 10, 41: 0, 42: 2, 43: 1, 44: 3, 45: 2, 46: 0, 47: 0, 48: 3, 49: 0, 50: 2, 51: 0, 52: 6, 53: 1, 54: 0, 55: 0, 56: 2, 57: 0, 58: 1, 59: 0, 60: 0, 61: 0, 62: 1, 63: 0, 64: 20}</t>
+          <t>{0: 15, 1: 741, 2: 12426, 3: 3827, 4: 8125, 5: 1053, 6: 1738, 7: 0, 8: 1799, 9: 0, 10: 426, 11: 178, 12: 443, 13: 145, 14: 153, 15: 1, 16: 349, 17: 0, 18: 111, 19: 43, 20: 133, 21: 48, 22: 58, 23: 0, 24: 133, 25: 0, 26: 34, 27: 18, 28: 52, 29: 20, 30: 28, 31: 0, 32: 38, 33: 0, 34: 15, 35: 6, 36: 17, 37: 5, 38: 2, 39: 0, 40: 20, 41: 0, 42: 2, 43: 5, 44: 6, 45: 2, 46: 2, 47: 0, 48: 7, 49: 0, 50: 1, 51: 3, 52: 3, 53: 0, 54: 2, 55: 0, 56: 8, 57: 0, 58: 1, 59: 0, 60: 1, 61: 0, 62: 0, 63: 0, 64: 15}</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{0: 12, 1: 412, 2: 9506, 3: 5368, 4: 8396, 5: 1217, 6: 1598, 7: 0, 8: 2614, 9: 0, 10: 404, 11: 234, 12: 508, 13: 162, 14: 189, 15: 0, 16: 492, 17: 0, 18: 127, 19: 64, 20: 134, 21: 46, 22: 74, 23: 0, 24: 152, 25: 0, 26: 50, 27: 26, 28: 59, 29: 17, 30: 35, 31: 0, 32: 83, 33: 1, 34: 17, 35: 8, 36: 18, 37: 4, 38: 4, 39: 0, 40: 24, 41: 0, 42: 3, 43: 2, 44: 9, 45: 0, 46: 0, 47: 0, 48: 10, 49: 0, 50: 1, 51: 1, 52: 7, 53: 0, 54: 1, 55: 0, 56: 7, 57: 0, 58: 0, 59: 1, 60: 2, 61: 0, 62: 0, 63: 0, 64: 12}</t>
+          <t>{0: 14, 1: 744, 2: 11830, 3: 4585, 4: 6689, 5: 1572, 6: 1622, 7: 2, 8: 1879, 9: 0, 10: 516, 11: 279, 12: 489, 13: 178, 14: 203, 15: 0, 16: 437, 17: 0, 18: 147, 19: 64, 20: 175, 21: 50, 22: 105, 23: 0, 24: 170, 25: 0, 26: 57, 27: 28, 28: 49, 29: 15, 30: 33, 31: 0, 32: 63, 33: 0, 34: 21, 35: 11, 36: 19, 37: 2, 38: 8, 39: 0, 40: 18, 41: 0, 42: 1, 43: 2, 44: 9, 45: 3, 46: 0, 47: 0, 48: 13, 49: 0, 50: 3, 51: 1, 52: 6, 53: 0, 54: 1, 55: 0, 56: 7, 57: 0, 58: 3, 59: 3, 60: 2, 61: 0, 62: 4, 63: 0, 64: 14}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 13, 2: 10484, 3: 0, 4: 6283, 5: 0, 6: 1418, 7: 0, 8: 6290, 9: 0, 10: 495, 11: 0, 12: 336, 13: 119, 14: 171, 15: 0, 16: 1190, 17: 0, 18: 90, 19: 46, 20: 96, 21: 34, 22: 68, 23: 1, 24: 116, 25: 0, 26: 44, 27: 22, 28: 31, 29: 13, 30: 28, 31: 0, 32: 470}</t>
+          <t>{0: 0, 1: 21, 2: 9269, 3: 0, 4: 6713, 5: 0, 6: 1540, 7: 0, 8: 6582, 9: 0, 10: 479, 11: 1, 12: 478, 13: 144, 14: 211, 15: 0, 16: 1342, 17: 0, 18: 116, 19: 33, 20: 123, 21: 36, 22: 87, 23: 1, 24: 139, 25: 0, 26: 34, 27: 25, 28: 41, 29: 12, 30: 31, 31: 0, 32: 458}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>{0: 17, 1: 422, 2: 11332, 3: 6425, 4: 6438, 5: 1497, 6: 1728, 7: 0, 8: 1611, 9: 0, 10: 461, 11: 274, 12: 331, 13: 186, 14: 161, 15: 0, 16: 312, 17: 0, 18: 114, 19: 58, 20: 108, 21: 44, 22: 87, 23: 0, 24: 154, 25: 0, 26: 46, 27: 27, 28: 53, 29: 26, 30: 42, 31: 0, 32: 78, 33: 0, 34: 27, 35: 8, 36: 30, 37: 6, 38: 7, 39: 0, 40: 16, 41: 0, 42: 7, 43: 8, 44: 7, 45: 3, 46: 3, 47: 0, 48: 3, 49: 0, 50: 3, 51: 3, 52: 2, 53: 0, 54: 1, 55: 0, 56: 2, 57: 0, 58: 0, 59: 2, 60: 0, 61: 1, 62: 0, 63: 0, 64: 17}</t>
+          <t>{0: 11, 1: 826, 2: 12938, 3: 4813, 4: 7121, 5: 1159, 6: 1521, 7: 1, 8: 1639, 9: 0, 10: 329, 11: 199, 12: 337, 13: 159, 14: 174, 15: 0, 16: 322, 17: 0, 18: 103, 19: 43, 20: 101, 21: 47, 22: 57, 23: 0, 24: 127, 25: 0, 26: 42, 27: 20, 28: 35, 29: 17, 30: 23, 31: 0, 32: 46, 33: 0, 34: 10, 35: 12, 36: 23, 37: 2, 38: 5, 39: 0, 40: 13, 41: 0, 42: 2, 43: 3, 44: 4, 45: 2, 46: 3, 47: 0, 48: 10, 49: 0, 50: 1, 51: 0, 52: 1, 53: 0, 54: 1, 55: 0, 56: 1, 57: 0, 58: 0, 59: 1, 60: 2, 61: 0, 62: 0, 63: 0, 64: 11}</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{0: 53, 1: 7, 2: 10364, 3: 0, 4: 6915, 5: 0, 6: 1475, 7: 0, 8: 5969, 9: 0, 10: 375, 11: 0, 12: 337, 13: 0, 14: 145, 15: 0, 16: 1337, 17: 0, 18: 96, 19: 0, 20: 105, 21: 0, 22: 54, 23: 0, 24: 127, 25: 0, 26: 48, 27: 15, 28: 53, 29: 14, 30: 34, 31: 0, 32: 248, 33: 0, 34: 17, 35: 9, 36: 34, 37: 2, 38: 6, 39: 0, 40: 164, 41: 0, 42: 5, 43: 5, 44: 11, 45: 1, 46: 1, 47: 0, 48: 12, 49: 0, 50: 5, 51: 3, 52: 4, 53: 1, 54: 0, 55: 0, 56: 57, 57: 0, 58: 0, 59: 0, 60: 4, 61: 0, 62: 1, 63: 0, 64: 53}</t>
+          <t>{0: 48, 1: 4, 2: 11950, 3: 0, 4: 6516, 5: 0, 6: 1185, 7: 0, 8: 5409, 9: 0, 10: 338, 11: 0, 12: 326, 13: 0, 14: 122, 15: 0, 16: 1133, 17: 0, 18: 88, 19: 0, 20: 89, 21: 0, 22: 45, 23: 0, 24: 101, 25: 0, 26: 32, 27: 12, 28: 50, 29: 18, 30: 15, 31: 0, 32: 202, 33: 0, 34: 11, 35: 4, 36: 24, 37: 3, 38: 1, 39: 0, 40: 136, 41: 0, 42: 2, 43: 3, 44: 6, 45: 1, 46: 1, 47: 0, 48: 8, 49: 0, 50: 1, 51: 1, 52: 2, 53: 0, 54: 0, 55: 0, 56: 45, 57: 0, 58: 0, 59: 0, 60: 1, 61: 0, 62: 0, 63: 0, 64: 48}</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 411, 2: 11039, 3: 5842, 4: 7449, 5: 1301, 6: 1622, 7: 0, 8: 1756, 9: 0, 10: 437, 11: 209, 12: 438, 13: 157, 14: 146, 15: 0, 16: 347, 17: 0, 18: 107, 19: 65, 20: 151, 21: 53, 22: 63, 23: 1, 24: 140, 25: 0, 26: 54, 27: 24, 28: 68, 29: 20, 30: 26, 31: 0, 32: 260}</t>
+          <t>{0: 0, 1: 478, 2: 12020, 3: 4673, 4: 7232, 5: 1359, 6: 1651, 7: 1, 8: 1954, 9: 0, 10: 446, 11: 251, 12: 477, 13: 157, 14: 157, 15: 1, 16: 366, 17: 2, 18: 97, 19: 40, 20: 131, 21: 53, 22: 55, 23: 0, 24: 153, 25: 0, 26: 47, 27: 23, 28: 55, 29: 21, 30: 22, 31: 0, 32: 223}</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{0: 4, 1: 263, 2: 11272, 3: 6167, 4: 8106, 5: 1238, 6: 1308, 7: 0, 8: 1303, 9: 0, 10: 430, 11: 220, 12: 418, 13: 151, 14: 181, 15: 0, 16: 340, 17: 0, 18: 129, 19: 70, 20: 104, 21: 50, 22: 69, 23: 0, 24: 123, 25: 0, 26: 46, 27: 34, 28: 41, 29: 21, 30: 27, 31: 0, 32: 71, 33: 1, 34: 31, 35: 4, 36: 16, 37: 0, 38: 12, 39: 0, 40: 10, 41: 1, 42: 3, 43: 3, 44: 2, 45: 2, 46: 1, 47: 0, 48: 5, 49: 0, 50: 2, 51: 1, 52: 0, 53: 0, 54: 1, 55: 0, 56: 1, 57: 0, 58: 0, 59: 0, 60: 0, 61: 0, 62: 0, 63: 0, 64: 4}</t>
+          <t>{0: 12, 1: 763, 2: 10855, 3: 4192, 4: 8607, 5: 1122, 6: 1827, 7: 0, 8: 2274, 9: 0, 10: 395, 11: 202, 12: 431, 13: 126, 14: 137, 15: 0, 16: 378, 17: 0, 18: 108, 19: 37, 20: 121, 21: 45, 22: 60, 23: 0, 24: 165, 25: 0, 26: 28, 27: 12, 28: 56, 29: 15, 30: 25, 31: 0, 32: 90, 33: 0, 34: 16, 35: 7, 36: 27, 37: 5, 38: 3, 39: 0, 40: 20, 41: 0, 42: 1, 43: 1, 44: 17, 45: 2, 46: 2, 47: 0, 48: 12, 49: 0, 50: 3, 51: 1, 52: 2, 53: 0, 54: 0, 55: 0, 56: 3, 57: 0, 58: 0, 59: 1, 60: 3, 61: 0, 62: 0, 63: 0, 64: 12}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{0: 21, 1: 301, 2: 10511, 3: 5054, 4: 8430, 5: 1206, 6: 1766, 7: 0, 8: 1875, 9: 0, 10: 437, 11: 226, 12: 462, 13: 168, 14: 180, 15: 0, 16: 366, 17: 0, 18: 115, 19: 54, 20: 147, 21: 67, 22: 97, 23: 0, 24: 176, 25: 0, 26: 55, 27: 36, 28: 54, 29: 27, 30: 40, 31: 0, 32: 112, 33: 0, 34: 23, 35: 10, 36: 39, 37: 7, 38: 9, 39: 0, 40: 37, 41: 2, 42: 8, 43: 4, 44: 9, 45: 5, 46: 6, 47: 0, 48: 14, 49: 0, 50: 5, 51: 2, 52: 7, 53: 0, 54: 0, 55: 0, 56: 3, 57: 0, 58: 1, 59: 1, 60: 0, 61: 0, 62: 2, 63: 0, 64: 21}</t>
+          <t>{0: 12, 1: 812, 2: 12047, 3: 5229, 4: 6131, 5: 1411, 6: 1894, 7: 1, 8: 1684, 9: 0, 10: 499, 11: 241, 12: 424, 13: 158, 14: 180, 15: 0, 16: 333, 17: 0, 18: 116, 19: 57, 20: 144, 21: 47, 22: 94, 23: 0, 24: 165, 25: 0, 26: 56, 27: 25, 28: 51, 29: 23, 30: 45, 31: 0, 32: 85, 33: 0, 34: 19, 35: 13, 36: 30, 37: 4, 38: 16, 39: 0, 40: 17, 41: 0, 42: 9, 43: 7, 44: 12, 45: 4, 46: 2, 47: 0, 48: 13, 49: 0, 50: 5, 51: 0, 52: 0, 53: 0, 54: 0, 55: 0, 56: 4, 57: 0, 58: 1, 59: 1, 60: 1, 61: 2, 62: 0, 63: 0, 64: 12}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 5, 2: 10809, 3: 0, 4: 7753, 5: 0, 6: 1617, 7: 0, 8: 4952, 9: 1, 10: 391, 11: 0, 12: 436, 13: 144, 14: 140, 15: 0, 16: 1313, 17: 0, 18: 105, 19: 56, 20: 134, 21: 44, 22: 46, 23: 1, 24: 138, 25: 0, 26: 47, 27: 17, 28: 62, 29: 14, 30: 21, 31: 0, 32: 342}</t>
+          <t>{0: 0, 1: 10, 2: 9197, 3: 0, 4: 7518, 5: 0, 6: 1349, 7: 0, 8: 6242, 9: 1, 10: 367, 11: 0, 12: 364, 13: 142, 14: 131, 15: 0, 16: 1213, 17: 0, 18: 94, 19: 41, 20: 122, 21: 62, 22: 50, 23: 0, 24: 121, 25: 2, 26: 48, 27: 9, 28: 54, 29: 21, 30: 27, 31: 0, 32: 401}</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 2, 2: 1532, 3: 0, 4: 585, 5: 0, 6: 218, 7: 0, 8: 1217, 9: 0, 10: 59, 11: 0, 12: 32, 13: 24, 14: 30, 15: 0, 16: 205, 17: 0, 18: 14, 19: 4, 20: 9, 21: 6, 22: 7, 23: 0, 24: 6, 25: 0, 26: 2, 27: 0, 28: 1, 29: 4, 30: 2, 31: 0, 32: 50}</t>
+          <t>{0: 0, 1: 1, 2: 1401, 3: 0, 4: 780, 5: 0, 6: 187, 7: 0, 8: 1251, 9: 0, 10: 59, 11: 0, 12: 45, 13: 18, 14: 28, 15: 0, 16: 161, 17: 0, 18: 15, 19: 6, 20: 9, 21: 3, 22: 7, 23: 0, 24: 12, 25: 0, 26: 5, 27: 2, 28: 2, 29: 1, 30: 1, 31: 0, 32: 42}</t>
         </is>
       </c>
     </row>
@@ -1885,9 +1883,9 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[[   3   49   43 ...    0    0    0]
- [  33 6124 1664 ...    0    0    0]
- [  17 1611 2072 ...    0    0    0]
+          <t>[[  13  314   83 ...    0    0    0]
+ [ 374 6565 1693 ...    0    0    0]
+ [  13 1617 1850 ...    0    0    0]
  ...
  [   0    0    0 ...    0    0    0]
  [   0    0    0 ...    0    0    0]
@@ -1897,133 +1895,133 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>[[   0    0    0 ...    0    0    0]
- [   1 6573    0 ...    0    0    7]
+ [   4 6649    0 ...    0    0   11]
  [   0    0    0 ...    0    0    0]
  ...
  [   0    0    0 ...    0    0    0]
  [   0    0    0 ...    0    0    0]
- [   0    5    0 ...    0    0    0]]</t>
+ [   0   16    0 ...    0    0    0]]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[[   5   60   37 ...    0    0    2]
- [  53 6438 1260 ...    8    0   31]
- [  10 1201 1945 ...    4    0   29]
+          <t>[[   8  319  159 ...    1    0    4]
+ [ 406 6520 1484 ...    9    0   20]
+ [  12 1451 1365 ...    1    0   11]
  ...
- [   0   12    6 ...    0    0    1]
- [   0    0    0 ...    0    0    0]
- [   1   53   28 ...    3    0   37]]</t>
+ [   0    7    3 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   6   20   15 ...    1    0    8]]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[[   6   66   34 ...    0    0    0]
- [  66 5743 1524 ...    1    0    0]
- [  15 1511 2020 ...    0    0    0]
+          <t>[[   8  302  110 ...    0    0    0]
+ [ 348 7115 1320 ...    0    0    0]
+ [  11 1267  808 ...    0    0    2]
  ...
- [   0    1    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   1    1    1 ...    0    0    0]]</t>
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   1    0    3 ...    0    0    0]]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[   4   91   61 ...    0    0    0]
- [  69 5052 1293 ...    0    0    1]
- [  14 1296 2165 ...    0    0    0]
+          <t>[[   8  394  104 ...    0    0    0]
+ [ 443 6425 1477 ...    0    0    0]
+ [  12 1366 1171 ...    0    0    1]
  ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0    0    1 ...    0    0    0]]</t>
+ [   1    0    0 ...    1    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    2    1 ...    0    0    0]]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>[[   0    2    0 ...    0    0    0]
+ [   2 5229    0 ...    4    0   65]
+ [   0    0    0 ...    0    0    0]
+ ...
+ [   0    6    0 ...    0    0    3]
+ [   0    0    0 ...    0    0    0]
+ [   0   73    0 ...    5    0   38]]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[[  51  345  112 ...    0    0    0]
+ [ 449 7633 1599 ...    0    0    0]
+ [  23 1606 1541 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[[   0    2    0 ...    0    0    0]
+ [   1 7056    0 ...    0    0    9]
+ [   0    0    0 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0   13    0 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[   7  182   54 ...    0    0    2]
+ [ 201 6831 1523 ...    2    0   22]
+ [  30 1456 1463 ...    3    0   13]
+ ...
+ [   0    5    4 ...    0    0    1]
+ [   0    0    0 ...    0    0    0]
+ [   1   25   23 ...    1    0    6]]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[[  44  198   94 ...    0    0    0]
+ [ 230 6219  998 ...    0    0    1]
+ [  29  978 1317 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   1    1    0 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[[  30  419  131 ...    0    0    1]
+ [ 494 6730 1713 ...    0    0    2]
+ [  38 1681 1678 ...    0    0    0]
+ ...
+ [   0    0    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0    1    1 ...    0    0    0]]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>[[   0    1    0 ...    0    0    0]
- [   0 6082    0 ...   10    0   92]
+ [   1 4937    0 ...    4    0   70]
  [   0    0    0 ...    0    0    0]
  ...
- [   0    8    0 ...    0    0    2]
- [   0    0    0 ...    0    0    0]
- [   2   98    0 ...    2    0   37]]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>[[   8   73   88 ...    0    0    0]
- [  57 6392 1706 ...    0    0    1]
- [  42 1631 2315 ...    0    0    5]
- ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   2    2    2 ...    0    0    0]]</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[[   0    1    0 ...    0    0    0]
- [   0 5749    0 ...    0    0   16]
- [   0    0    0 ...    0    0    0]
- ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0   14    0 ...    0    0    0]]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>[[  17   96   92 ...    0    0    3]
- [  76 5990 1601 ...    5    0   35]
- [  57 1628 2352 ...    4    0    6]
- ...
- [   0    9    1 ...    1    0    0]
- [   0    0    0 ...    0    0    0]
- [   5   48   12 ...    1    0   22]]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[[   0   65   58 ...    0    0    0]
- [  72 6007 1716 ...    0    0    0]
- [  34 1742 2368 ...    0    0    0]
- ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0    1    0 ...    0    0    0]]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[[   6   54   47 ...    0    0    0]
- [  46 5820 1106 ...    0    0    2]
- [  20 1106 2026 ...    0    0    3]
- ...
- [   0    0    0 ...    0    0    0]
- [   0    0    0 ...    0    0    0]
- [   0    3    1 ...    0    0    1]]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[[   0    0    0 ...    0    0    0]
- [   0 6356    0 ...    4    0   61]
- [   0    0    0 ...    0    0    0]
- ...
- [   0    7    0 ...    0    0    1]
- [   0    0    0 ...    0    0    0]
- [   0   88    0 ...    0    0    9]]</t>
+ [   0    5    0 ...    0    0    0]
+ [   0    0    0 ...    0    0    0]
+ [   0   82    0 ...    0    0   15]]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>[[  0   1   0 ...   0   0   0]
- [  1 735   0 ...   0   0  11]
+          <t>[[  0   0   0 ...   0   0   0]
+ [  0 654   0 ...   0   0   6]
  [  0   0   0 ...   0   0   0]
  ...
  [  0   1   0 ...   0   0   0]
  [  0   0   0 ...   0   0   0]
- [  0  14   0 ...   0   0   1]]</t>
+ [  0  16   0 ...   0   0   1]]</t>
         </is>
       </c>
     </row>
